--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_11_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_11_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-940584.7020707394</v>
+        <v>-943658.0763814946</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11387448.25101464</v>
+        <v>11387448.25101463</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13907641.01318823</v>
+        <v>13907641.01318824</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="C2" t="n">
+      <c r="G2" t="n">
         <v>53.79631798062264</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>25.34580260830151</v>
-      </c>
-      <c r="F2" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="G2" t="n">
-        <v>15.16194852731947</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>53.79631798062264</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>47.38379687733241</v>
       </c>
     </row>
     <row r="3">
@@ -738,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>47.38379687733242</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>47.38379687733241</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -750,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>53.79631798062264</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>53.79631798062264</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -823,46 +823,46 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>53.79631798062264</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>53.79631798062264</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>13.74224000600998</v>
       </c>
       <c r="X4" t="n">
-        <v>13.74224000600998</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
     </row>
     <row r="5">
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>53.79631798062264</v>
       </c>
       <c r="G5" t="n">
-        <v>15.16194852731947</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>32.22184835001295</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>47.3837968773324</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -987,10 +987,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>47.38379687733242</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
       <c r="T6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,10 +1035,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>47.38379687733242</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>13.74224000600998</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="G7" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>52.60630734092059</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>54.85152318215444</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>303.7050253146236</v>
       </c>
       <c r="E8" t="n">
-        <v>303.7050253146163</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>303.7050253146236</v>
       </c>
       <c r="G8" t="n">
-        <v>260.6273405554024</v>
+        <v>303.7050253146236</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>303.7050253146163</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>303.7050253146163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,10 +1212,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1224,7 +1224,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0669836643703</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1272,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>161.8483210971583</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>35.56260416608896</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>166.6209915206986</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>99.03978753465336</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>336.596933377441</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>238.8071638495619</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1528,16 +1528,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>120.6347889227734</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>223.504845207032</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>356.5845196044219</v>
       </c>
       <c r="G14" t="n">
         <v>409.8432760127576</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>34.32106446352899</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>90.75605730520753</v>
       </c>
       <c r="D16" t="n">
-        <v>16.03945994319763</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2017,10 +2017,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>67.18075159108355</v>
       </c>
       <c r="S19" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4819944627618</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>27.34976602775349</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.807009915248187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="21">
@@ -2239,10 +2239,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>110.3469406895103</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.338488358459</v>
+        <v>17.9158234369996</v>
       </c>
       <c r="T22" t="n">
         <v>217.4819944627618</v>
@@ -2479,10 +2479,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>56.93249644768547</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>59.11400681932932</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>23.94516103140361</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>23.94516103140387</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.338488358459</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>56.29832105437015</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>94.32509593970354</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
         <v>81.80457674440902</v>
@@ -2998,7 +2998,7 @@
         <v>67.18075159108355</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T31" t="n">
         <v>217.4819944627618</v>
@@ -3007,7 +3007,7 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>378.7789109073438</v>
+        <v>378.7789109073437</v>
       </c>
       <c r="C32" t="n">
-        <v>361.3179610148708</v>
+        <v>361.3179610148707</v>
       </c>
       <c r="D32" t="n">
-        <v>350.7281108645462</v>
+        <v>350.7281108645461</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>377.9754393161249</v>
       </c>
       <c r="F32" t="n">
-        <v>402.9211149855747</v>
+        <v>402.9211149855745</v>
       </c>
       <c r="G32" t="n">
-        <v>405.8883452566208</v>
+        <v>405.8883452566207</v>
       </c>
       <c r="H32" t="n">
-        <v>280.7307349408962</v>
+        <v>279.6081612484074</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>80.65765984468284</v>
+        <v>80.6576598446827</v>
       </c>
       <c r="T32" t="n">
-        <v>195.2421260813374</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U32" t="n">
-        <v>246.9539652315095</v>
+        <v>248.0765389239991</v>
       </c>
       <c r="V32" t="n">
-        <v>323.7973277139981</v>
+        <v>323.797327713998</v>
       </c>
       <c r="W32" t="n">
-        <v>345.2860379612762</v>
+        <v>345.2860379612761</v>
       </c>
       <c r="X32" t="n">
-        <v>365.7761699223323</v>
+        <v>365.7761699223321</v>
       </c>
       <c r="Y32" t="n">
-        <v>382.2830078999168</v>
+        <v>382.2830078999167</v>
       </c>
     </row>
     <row r="33">
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>175.8770494258005</v>
+        <v>175.8770494258004</v>
       </c>
       <c r="C34" t="n">
-        <v>163.2918903424911</v>
+        <v>163.2918903424909</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,16 +3196,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>138.9600785424596</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>161.5871221210301</v>
+        <v>161.58712212103</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>61.11043255419037</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>77.8496459882721</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>63.22582083494678</v>
+        <v>63.22582083494663</v>
       </c>
       <c r="S34" t="n">
-        <v>177.3835576023222</v>
+        <v>177.383557602322</v>
       </c>
       <c r="T34" t="n">
-        <v>213.527063706625</v>
+        <v>213.5270637066249</v>
       </c>
       <c r="U34" t="n">
-        <v>282.2305207922836</v>
+        <v>282.2305207922835</v>
       </c>
       <c r="V34" t="n">
-        <v>248.1827125676912</v>
+        <v>248.1827125676911</v>
       </c>
       <c r="W34" t="n">
-        <v>282.5680675804542</v>
+        <v>282.5680675804541</v>
       </c>
       <c r="X34" t="n">
-        <v>221.7547246329004</v>
+        <v>221.7547246329002</v>
       </c>
       <c r="Y34" t="n">
-        <v>214.629722595958</v>
+        <v>214.6297225959579</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>340.177969156337</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>381.7811231270409</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8432760127576</v>
@@ -3320,19 +3320,19 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9088959876463</v>
+        <v>250.8072150796976</v>
       </c>
       <c r="V35" t="n">
-        <v>327.6505775621852</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>344.6361780637985</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>361.143016041383</v>
       </c>
     </row>
     <row r="36">
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>154.7370575672668</v>
+        <v>154.7370575672667</v>
       </c>
       <c r="C37" t="n">
         <v>142.1518984839573</v>
       </c>
       <c r="D37" t="n">
-        <v>123.5205504035418</v>
+        <v>123.5205504035427</v>
       </c>
       <c r="E37" t="n">
         <v>121.3390400318986</v>
@@ -3442,7 +3442,7 @@
         <v>115.3590671772834</v>
       </c>
       <c r="I37" t="n">
-        <v>56.70965412973848</v>
+        <v>56.70965412973845</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3469,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.08582897641301</v>
+        <v>42.08582897641298</v>
       </c>
       <c r="S37" t="n">
         <v>156.2435657437884</v>
       </c>
       <c r="T37" t="n">
-        <v>192.3870718480913</v>
+        <v>192.3870718480912</v>
       </c>
       <c r="U37" t="n">
         <v>261.0905289337499</v>
       </c>
       <c r="V37" t="n">
-        <v>227.0427207091575</v>
+        <v>227.0427207091574</v>
       </c>
       <c r="W37" t="n">
         <v>261.4280757219204</v>
@@ -3490,7 +3490,7 @@
         <v>200.6147327743666</v>
       </c>
       <c r="Y37" t="n">
-        <v>193.4897307374243</v>
+        <v>193.4897307374242</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>340.177969156337</v>
       </c>
       <c r="D38" t="n">
         <v>329.5881190060124</v>
@@ -3554,13 +3554,13 @@
         <v>84.61259060081962</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0953759295261</v>
+        <v>199.0953759295243</v>
       </c>
       <c r="U38" t="n">
         <v>250.9088959876463</v>
       </c>
       <c r="V38" t="n">
-        <v>302.6573358554644</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>154.7370575672668</v>
+        <v>154.7370575672667</v>
       </c>
       <c r="C40" t="n">
         <v>142.1518984839573</v>
@@ -3679,7 +3679,7 @@
         <v>115.3590671772834</v>
       </c>
       <c r="I40" t="n">
-        <v>56.7096541297385</v>
+        <v>56.70965412973845</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.08582897641303</v>
+        <v>42.08582897641298</v>
       </c>
       <c r="S40" t="n">
-        <v>156.2435657437885</v>
+        <v>156.2435657437884</v>
       </c>
       <c r="T40" t="n">
-        <v>192.3870718480913</v>
+        <v>192.3870718480912</v>
       </c>
       <c r="U40" t="n">
         <v>261.0905289337499</v>
       </c>
       <c r="V40" t="n">
-        <v>227.0427207091575</v>
+        <v>227.0427207091574</v>
       </c>
       <c r="W40" t="n">
-        <v>261.4280757219205</v>
+        <v>261.4280757219204</v>
       </c>
       <c r="X40" t="n">
         <v>200.6147327743666</v>
       </c>
       <c r="Y40" t="n">
-        <v>193.4897307374243</v>
+        <v>193.4897307374242</v>
       </c>
     </row>
     <row r="41">
@@ -3746,10 +3746,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>356.8354474575912</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>381.7811231270409</v>
       </c>
       <c r="G41" t="n">
         <v>409.8432760127576</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>59.51766798614908</v>
+        <v>84.51090969287124</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0953759295251</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U41" t="n">
         <v>250.9088959876463</v>
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>344.6361780637985</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3977,13 +3977,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>340.177969156337</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>356.8354474575913</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3992,7 +3992,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>258.4681693898738</v>
+        <v>283.4614110965953</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4034,13 +4034,13 @@
         <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
-        <v>327.6505775621852</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>344.6361780637985</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4153,7 +4153,7 @@
         <v>115.3590671772834</v>
       </c>
       <c r="I46" t="n">
-        <v>56.7096541297385</v>
+        <v>56.70965412973847</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.08582897641303</v>
+        <v>42.08582897641301</v>
       </c>
       <c r="S46" t="n">
         <v>156.2435657437884</v>
@@ -4195,7 +4195,7 @@
         <v>227.0427207091575</v>
       </c>
       <c r="W46" t="n">
-        <v>261.4280757219205</v>
+        <v>261.4280757219204</v>
       </c>
       <c r="X46" t="n">
         <v>200.6147327743666</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>106.5058416586064</v>
+        <v>112.9831357023339</v>
       </c>
       <c r="C2" t="n">
-        <v>52.16612652666438</v>
+        <v>112.9831357023339</v>
       </c>
       <c r="D2" t="n">
-        <v>52.16612652666438</v>
+        <v>112.9831357023339</v>
       </c>
       <c r="E2" t="n">
-        <v>26.56430571019821</v>
+        <v>112.9831357023339</v>
       </c>
       <c r="F2" t="n">
-        <v>19.61880496099473</v>
+        <v>58.64342057039187</v>
       </c>
       <c r="G2" t="n">
         <v>4.303705438449811</v>
@@ -4334,13 +4334,13 @@
         <v>4.303705438449811</v>
       </c>
       <c r="L2" t="n">
-        <v>4.303705438449811</v>
+        <v>57.56206023926622</v>
       </c>
       <c r="M2" t="n">
-        <v>55.4102075200413</v>
+        <v>108.6685623208577</v>
       </c>
       <c r="N2" t="n">
-        <v>108.6685623208577</v>
+        <v>161.9269171216741</v>
       </c>
       <c r="O2" t="n">
         <v>161.9269171216741</v>
@@ -4373,7 +4373,7 @@
         <v>160.8455567905485</v>
       </c>
       <c r="Y2" t="n">
-        <v>160.8455567905485</v>
+        <v>112.9831357023339</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>106.5058416586064</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="C3" t="n">
-        <v>58.64342057039187</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="D3" t="n">
-        <v>58.64342057039187</v>
+        <v>112.9831357023339</v>
       </c>
       <c r="E3" t="n">
-        <v>58.64342057039187</v>
+        <v>112.9831357023339</v>
       </c>
       <c r="F3" t="n">
-        <v>58.64342057039187</v>
+        <v>112.9831357023339</v>
       </c>
       <c r="G3" t="n">
         <v>58.64342057039187</v>
@@ -4407,22 +4407,22 @@
         <v>4.303705438449811</v>
       </c>
       <c r="J3" t="n">
-        <v>4.303705438449811</v>
+        <v>10.61032575544672</v>
       </c>
       <c r="K3" t="n">
-        <v>57.56206023926622</v>
+        <v>63.86868055626314</v>
       </c>
       <c r="L3" t="n">
-        <v>108.6685623208577</v>
+        <v>117.1270353570795</v>
       </c>
       <c r="M3" t="n">
-        <v>108.6685623208577</v>
+        <v>161.9269171216741</v>
       </c>
       <c r="N3" t="n">
-        <v>161.9269171216741</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="O3" t="n">
-        <v>161.9269171216741</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="P3" t="n">
         <v>215.1852719224906</v>
@@ -4431,28 +4431,28 @@
         <v>215.1852719224906</v>
       </c>
       <c r="R3" t="n">
+        <v>215.1852719224906</v>
+      </c>
+      <c r="S3" t="n">
+        <v>215.1852719224906</v>
+      </c>
+      <c r="T3" t="n">
+        <v>215.1852719224906</v>
+      </c>
+      <c r="U3" t="n">
+        <v>215.1852719224906</v>
+      </c>
+      <c r="V3" t="n">
         <v>160.8455567905485</v>
       </c>
-      <c r="S3" t="n">
+      <c r="W3" t="n">
         <v>160.8455567905485</v>
       </c>
-      <c r="T3" t="n">
+      <c r="X3" t="n">
         <v>160.8455567905485</v>
       </c>
-      <c r="U3" t="n">
-        <v>106.5058416586064</v>
-      </c>
-      <c r="V3" t="n">
-        <v>106.5058416586064</v>
-      </c>
-      <c r="W3" t="n">
-        <v>106.5058416586064</v>
-      </c>
-      <c r="X3" t="n">
-        <v>106.5058416586064</v>
-      </c>
       <c r="Y3" t="n">
-        <v>106.5058416586064</v>
+        <v>160.8455567905485</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>112.9831357023339</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="C4" t="n">
-        <v>112.9831357023339</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="D4" t="n">
-        <v>112.9831357023339</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="E4" t="n">
-        <v>58.64342057039187</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="F4" t="n">
-        <v>58.64342057039187</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="G4" t="n">
-        <v>58.64342057039187</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="H4" t="n">
         <v>4.303705438449811</v>
@@ -4510,28 +4510,28 @@
         <v>181.2039013453972</v>
       </c>
       <c r="R4" t="n">
-        <v>181.2039013453972</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="S4" t="n">
-        <v>181.2039013453972</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="T4" t="n">
-        <v>126.8641862134551</v>
+        <v>72.52447108151307</v>
       </c>
       <c r="U4" t="n">
-        <v>126.8641862134551</v>
+        <v>72.52447108151307</v>
       </c>
       <c r="V4" t="n">
-        <v>126.8641862134551</v>
+        <v>72.52447108151307</v>
       </c>
       <c r="W4" t="n">
-        <v>126.8641862134551</v>
+        <v>58.64342057039187</v>
       </c>
       <c r="X4" t="n">
-        <v>112.9831357023339</v>
+        <v>58.64342057039187</v>
       </c>
       <c r="Y4" t="n">
-        <v>112.9831357023339</v>
+        <v>4.303705438449811</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>73.95852009293679</v>
+        <v>167.322850834276</v>
       </c>
       <c r="C5" t="n">
-        <v>73.95852009293679</v>
+        <v>167.322850834276</v>
       </c>
       <c r="D5" t="n">
-        <v>73.95852009293679</v>
+        <v>112.9831357023339</v>
       </c>
       <c r="E5" t="n">
-        <v>73.95852009293679</v>
+        <v>112.9831357023339</v>
       </c>
       <c r="F5" t="n">
-        <v>19.61880496099473</v>
+        <v>58.64342057039187</v>
       </c>
       <c r="G5" t="n">
         <v>4.303705438449811</v>
@@ -4571,16 +4571,16 @@
         <v>4.303705438449811</v>
       </c>
       <c r="L5" t="n">
-        <v>57.56206023926622</v>
+        <v>55.4102075200413</v>
       </c>
       <c r="M5" t="n">
-        <v>57.56206023926622</v>
+        <v>108.6685623208577</v>
       </c>
       <c r="N5" t="n">
-        <v>110.8204150400826</v>
+        <v>161.9269171216741</v>
       </c>
       <c r="O5" t="n">
-        <v>164.078769840899</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="P5" t="n">
         <v>215.1852719224906</v>
@@ -4589,28 +4589,28 @@
         <v>215.1852719224906</v>
       </c>
       <c r="R5" t="n">
-        <v>182.6379503568209</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="S5" t="n">
-        <v>128.2982352248789</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="T5" t="n">
-        <v>128.2982352248789</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="U5" t="n">
-        <v>128.2982352248789</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="V5" t="n">
-        <v>128.2982352248789</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="W5" t="n">
-        <v>73.95852009293679</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="X5" t="n">
-        <v>73.95852009293679</v>
+        <v>167.322850834276</v>
       </c>
       <c r="Y5" t="n">
-        <v>73.95852009293679</v>
+        <v>167.322850834276</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.303705438449811</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="C6" t="n">
-        <v>4.303705438449811</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="D6" t="n">
-        <v>4.303705438449811</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="E6" t="n">
-        <v>4.303705438449811</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="F6" t="n">
-        <v>4.303705438449811</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="G6" t="n">
-        <v>4.303705438449811</v>
+        <v>58.64342057039187</v>
       </c>
       <c r="H6" t="n">
         <v>4.303705438449811</v>
@@ -4647,49 +4647,49 @@
         <v>10.61032575544672</v>
       </c>
       <c r="K6" t="n">
-        <v>63.86868055626314</v>
+        <v>10.61032575544672</v>
       </c>
       <c r="L6" t="n">
-        <v>117.1270353570795</v>
+        <v>10.61032575544672</v>
       </c>
       <c r="M6" t="n">
-        <v>117.1270353570795</v>
+        <v>10.61032575544672</v>
       </c>
       <c r="N6" t="n">
+        <v>55.4102075200413</v>
+      </c>
+      <c r="O6" t="n">
+        <v>108.6685623208577</v>
+      </c>
+      <c r="P6" t="n">
         <v>161.9269171216741</v>
-      </c>
-      <c r="O6" t="n">
-        <v>215.1852719224906</v>
-      </c>
-      <c r="P6" t="n">
-        <v>215.1852719224906</v>
       </c>
       <c r="Q6" t="n">
         <v>215.1852719224906</v>
       </c>
       <c r="R6" t="n">
-        <v>160.8455567905485</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="S6" t="n">
         <v>160.8455567905485</v>
       </c>
       <c r="T6" t="n">
-        <v>106.5058416586064</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="U6" t="n">
-        <v>106.5058416586064</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="V6" t="n">
-        <v>106.5058416586064</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="W6" t="n">
-        <v>52.16612652666438</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="X6" t="n">
-        <v>4.303705438449811</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.303705438449811</v>
+        <v>160.8455567905485</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72.52447108151307</v>
+        <v>128.0662171626491</v>
       </c>
       <c r="C7" t="n">
-        <v>72.52447108151307</v>
+        <v>128.0662171626491</v>
       </c>
       <c r="D7" t="n">
-        <v>72.52447108151307</v>
+        <v>128.0662171626491</v>
       </c>
       <c r="E7" t="n">
-        <v>58.64342057039187</v>
+        <v>73.72650203070704</v>
       </c>
       <c r="F7" t="n">
-        <v>58.64342057039187</v>
+        <v>19.38678689876497</v>
       </c>
       <c r="G7" t="n">
-        <v>4.303705438449811</v>
+        <v>19.38678689876497</v>
       </c>
       <c r="H7" t="n">
-        <v>4.303705438449811</v>
+        <v>19.38678689876497</v>
       </c>
       <c r="I7" t="n">
-        <v>4.303705438449811</v>
+        <v>19.38678689876497</v>
       </c>
       <c r="J7" t="n">
-        <v>4.303705438449811</v>
+        <v>19.38678689876497</v>
       </c>
       <c r="K7" t="n">
         <v>4.303705438449811</v>
@@ -4753,22 +4753,22 @@
         <v>181.2039013453972</v>
       </c>
       <c r="T7" t="n">
-        <v>126.8641862134551</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="U7" t="n">
-        <v>126.8641862134551</v>
+        <v>128.0662171626491</v>
       </c>
       <c r="V7" t="n">
-        <v>126.8641862134551</v>
+        <v>128.0662171626491</v>
       </c>
       <c r="W7" t="n">
-        <v>126.8641862134551</v>
+        <v>128.0662171626491</v>
       </c>
       <c r="X7" t="n">
-        <v>72.52447108151307</v>
+        <v>128.0662171626491</v>
       </c>
       <c r="Y7" t="n">
-        <v>72.52447108151307</v>
+        <v>128.0662171626491</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>601.2745955723715</v>
+        <v>944.6146605543324</v>
       </c>
       <c r="C8" t="n">
-        <v>601.2745955723715</v>
+        <v>944.6146605543324</v>
       </c>
       <c r="D8" t="n">
-        <v>601.2745955723715</v>
+        <v>637.8419077112783</v>
       </c>
       <c r="E8" t="n">
-        <v>294.5018427293247</v>
+        <v>637.8419077112783</v>
       </c>
       <c r="F8" t="n">
-        <v>287.5563419801213</v>
+        <v>331.0691548682241</v>
       </c>
       <c r="G8" t="n">
-        <v>24.2964020251693</v>
+        <v>24.29640202516989</v>
       </c>
       <c r="H8" t="n">
-        <v>24.2964020251693</v>
+        <v>24.29640202516989</v>
       </c>
       <c r="I8" t="n">
-        <v>24.2964020251693</v>
+        <v>24.29640202516989</v>
       </c>
       <c r="J8" t="n">
-        <v>45.5306520185526</v>
+        <v>45.53065201855319</v>
       </c>
       <c r="K8" t="n">
-        <v>248.07139936723</v>
+        <v>128.0938065931456</v>
       </c>
       <c r="L8" t="n">
-        <v>387.4000552084832</v>
+        <v>267.4224624343988</v>
       </c>
       <c r="M8" t="n">
-        <v>574.0994680338908</v>
+        <v>568.0904374958761</v>
       </c>
       <c r="N8" t="n">
-        <v>768.4336809258732</v>
+        <v>868.7584125573535</v>
       </c>
       <c r="O8" t="n">
-        <v>1069.101655987343</v>
+        <v>1038.927437874313</v>
       </c>
       <c r="P8" t="n">
-        <v>1179.83598123687</v>
+        <v>1179.835981236899</v>
       </c>
       <c r="Q8" t="n">
-        <v>1214.820101258465</v>
+        <v>1214.820101258495</v>
       </c>
       <c r="R8" t="n">
-        <v>1214.820101258465</v>
+        <v>1214.820101258495</v>
       </c>
       <c r="S8" t="n">
-        <v>1214.820101258465</v>
+        <v>1214.820101258495</v>
       </c>
       <c r="T8" t="n">
-        <v>1214.820101258465</v>
+        <v>1000.020239526206</v>
       </c>
       <c r="U8" t="n">
-        <v>1214.820101258465</v>
+        <v>1000.020239526206</v>
       </c>
       <c r="V8" t="n">
-        <v>1214.820101258465</v>
+        <v>1000.020239526206</v>
       </c>
       <c r="W8" t="n">
-        <v>1214.820101258465</v>
+        <v>1000.020239526206</v>
       </c>
       <c r="X8" t="n">
-        <v>908.0473484154182</v>
+        <v>1000.020239526206</v>
       </c>
       <c r="Y8" t="n">
-        <v>601.2745955723715</v>
+        <v>1000.020239526206</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>467.5098126445179</v>
+        <v>653.4558539461187</v>
       </c>
       <c r="C9" t="n">
-        <v>467.5098126445179</v>
+        <v>479.0028246649917</v>
       </c>
       <c r="D9" t="n">
-        <v>467.5098126445179</v>
+        <v>330.0684150037404</v>
       </c>
       <c r="E9" t="n">
-        <v>308.2723576390624</v>
+        <v>170.8309599982849</v>
       </c>
       <c r="F9" t="n">
-        <v>161.7377996659474</v>
+        <v>24.29640202516989</v>
       </c>
       <c r="G9" t="n">
-        <v>24.2964020251693</v>
+        <v>24.29640202516989</v>
       </c>
       <c r="H9" t="n">
-        <v>24.2964020251693</v>
+        <v>24.29640202516989</v>
       </c>
       <c r="I9" t="n">
-        <v>24.2964020251693</v>
+        <v>24.29640202516989</v>
       </c>
       <c r="J9" t="n">
-        <v>24.2964020251693</v>
+        <v>24.29640202516989</v>
       </c>
       <c r="K9" t="n">
-        <v>91.90422168852633</v>
+        <v>91.90422168852693</v>
       </c>
       <c r="L9" t="n">
-        <v>229.1338197042203</v>
+        <v>283.4008407535992</v>
       </c>
       <c r="M9" t="n">
-        <v>408.6311560588251</v>
+        <v>584.0688158150766</v>
       </c>
       <c r="N9" t="n">
-        <v>709.2991311202952</v>
+        <v>782.7255574677413</v>
       </c>
       <c r="O9" t="n">
-        <v>868.8114437890558</v>
+        <v>1083.393532529219</v>
       </c>
       <c r="P9" t="n">
-        <v>984.1066451979974</v>
+        <v>1192.083160056517</v>
       </c>
       <c r="Q9" t="n">
-        <v>1214.820101258465</v>
+        <v>1214.820101258495</v>
       </c>
       <c r="R9" t="n">
-        <v>1214.820101258465</v>
+        <v>1214.820101258495</v>
       </c>
       <c r="S9" t="n">
-        <v>1214.820101258465</v>
+        <v>1065.353312121129</v>
       </c>
       <c r="T9" t="n">
-        <v>1214.820101258465</v>
+        <v>1065.353312121129</v>
       </c>
       <c r="U9" t="n">
-        <v>1214.820101258465</v>
+        <v>1065.353312121129</v>
       </c>
       <c r="V9" t="n">
-        <v>1214.820101258465</v>
+        <v>1065.353312121129</v>
       </c>
       <c r="W9" t="n">
-        <v>1051.336948635073</v>
+        <v>1065.353312121129</v>
       </c>
       <c r="X9" t="n">
-        <v>843.4854484295399</v>
+        <v>1029.431489731141</v>
       </c>
       <c r="Y9" t="n">
-        <v>635.725149664586</v>
+        <v>821.6711909661867</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>341.1456785354693</v>
+        <v>42.17098978453251</v>
       </c>
       <c r="C10" t="n">
-        <v>172.2094956075624</v>
+        <v>42.17098978453251</v>
       </c>
       <c r="D10" t="n">
-        <v>172.2094956075624</v>
+        <v>42.17098978453251</v>
       </c>
       <c r="E10" t="n">
-        <v>24.2964020251693</v>
+        <v>42.17098978453251</v>
       </c>
       <c r="F10" t="n">
-        <v>24.2964020251693</v>
+        <v>42.17098978453251</v>
       </c>
       <c r="G10" t="n">
-        <v>24.2964020251693</v>
+        <v>42.17098978453251</v>
       </c>
       <c r="H10" t="n">
-        <v>24.2964020251693</v>
+        <v>42.17098978453251</v>
       </c>
       <c r="I10" t="n">
-        <v>24.2964020251693</v>
+        <v>42.17098978453251</v>
       </c>
       <c r="J10" t="n">
-        <v>24.2964020251693</v>
+        <v>24.29640202516989</v>
       </c>
       <c r="K10" t="n">
-        <v>125.3443316207791</v>
+        <v>125.3443316207797</v>
       </c>
       <c r="L10" t="n">
-        <v>310.1773265215975</v>
+        <v>310.1773265215981</v>
       </c>
       <c r="M10" t="n">
-        <v>515.4469272408354</v>
+        <v>515.4469272408361</v>
       </c>
       <c r="N10" t="n">
-        <v>721.2702920769398</v>
+        <v>721.2702920769404</v>
       </c>
       <c r="O10" t="n">
-        <v>895.3651874655386</v>
+        <v>895.3651874655393</v>
       </c>
       <c r="P10" t="n">
-        <v>1020.812764064154</v>
+        <v>1020.812764064155</v>
       </c>
       <c r="Q10" t="n">
-        <v>1024.231083484514</v>
+        <v>1024.231083484515</v>
       </c>
       <c r="R10" t="n">
-        <v>1024.231083484514</v>
+        <v>893.7531222039174</v>
       </c>
       <c r="S10" t="n">
-        <v>1024.231083484514</v>
+        <v>686.3128374563228</v>
       </c>
       <c r="T10" t="n">
-        <v>798.6018867968791</v>
+        <v>686.3128374563228</v>
       </c>
       <c r="U10" t="n">
-        <v>509.4497103745588</v>
+        <v>686.3128374563228</v>
       </c>
       <c r="V10" t="n">
-        <v>341.1456785354693</v>
+        <v>431.6283492504359</v>
       </c>
       <c r="W10" t="n">
-        <v>341.1456785354693</v>
+        <v>142.2111792134753</v>
       </c>
       <c r="X10" t="n">
-        <v>341.1456785354693</v>
+        <v>42.17098978453251</v>
       </c>
       <c r="Y10" t="n">
-        <v>341.1456785354693</v>
+        <v>42.17098978453251</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1859.132475219474</v>
+        <v>2175.400891308157</v>
       </c>
       <c r="C11" t="n">
-        <v>1519.135572818019</v>
+        <v>1806.438374367746</v>
       </c>
       <c r="D11" t="n">
-        <v>1160.869874211268</v>
+        <v>1448.172675760995</v>
       </c>
       <c r="E11" t="n">
-        <v>775.0816216130238</v>
+        <v>1062.384423162751</v>
       </c>
       <c r="F11" t="n">
-        <v>364.0957168234162</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839474</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912088</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V11" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W11" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X11" t="n">
-        <v>2635.871647259408</v>
+        <v>2952.140063348091</v>
       </c>
       <c r="Y11" t="n">
-        <v>2245.732315283596</v>
+        <v>2562.000731372279</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>600.8444854681024</v>
+        <v>657.6489837069649</v>
       </c>
       <c r="C13" t="n">
-        <v>431.9083025401956</v>
+        <v>657.6489837069649</v>
       </c>
       <c r="D13" t="n">
-        <v>431.9083025401956</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E13" t="n">
-        <v>310.0549803959802</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F13" t="n">
-        <v>310.0549803959802</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959802</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
         <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760401</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1837.46409084602</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1615.697475415546</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1326.59460854119</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V13" t="n">
-        <v>1071.910120335303</v>
+        <v>1288.079578578752</v>
       </c>
       <c r="W13" t="n">
-        <v>782.4929502983422</v>
+        <v>1288.079578578752</v>
       </c>
       <c r="X13" t="n">
-        <v>782.4929502983422</v>
+        <v>1060.090027680735</v>
       </c>
       <c r="Y13" t="n">
-        <v>782.4929502983422</v>
+        <v>839.2974485372047</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614635</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007884</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760437</v>
+        <v>1153.40847940964</v>
       </c>
       <c r="F14" t="n">
         <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322607906</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
-        <v>372.307498725193</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128756</v>
+        <v>841.9378825128774</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.46222495769</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333935</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021283</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S14" t="n">
-        <v>4605.913419421673</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.62987785606</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945778</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969966</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="15">
@@ -5343,31 +5343,31 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>93.85065580060312</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J15" t="n">
-        <v>241.4986375524491</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="K15" t="n">
-        <v>572.0073801158079</v>
+        <v>423.3203657894393</v>
       </c>
       <c r="L15" t="n">
-        <v>1062.739712959559</v>
+        <v>914.0526986331906</v>
       </c>
       <c r="M15" t="n">
-        <v>1654.758067211687</v>
+        <v>1506.071052885318</v>
       </c>
       <c r="N15" t="n">
-        <v>1654.758067211687</v>
+        <v>1506.071052885318</v>
       </c>
       <c r="O15" t="n">
         <v>1902.630837358917</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>675.7074548523136</v>
+        <v>561.9183350635725</v>
       </c>
       <c r="C16" t="n">
-        <v>506.7712719244066</v>
+        <v>470.2455499067972</v>
       </c>
       <c r="D16" t="n">
-        <v>490.5697972343079</v>
+        <v>470.2455499067972</v>
       </c>
       <c r="E16" t="n">
-        <v>342.6567036519148</v>
+        <v>322.3324563244041</v>
       </c>
       <c r="F16" t="n">
-        <v>342.6567036519148</v>
+        <v>175.4425088264937</v>
       </c>
       <c r="G16" t="n">
         <v>175.4425088264937</v>
@@ -5431,22 +5431,22 @@
         <v>175.4425088264937</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156346</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861979</v>
+        <v>431.4224730861984</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693321</v>
+        <v>819.1842911693326</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
@@ -5458,28 +5458,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.51642936867</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S16" t="n">
-        <v>2177.3462391076</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="T16" t="n">
-        <v>1957.667456821982</v>
+        <v>2025.52680186348</v>
       </c>
       <c r="U16" t="n">
-        <v>1668.591243136709</v>
+        <v>1736.450588178207</v>
       </c>
       <c r="V16" t="n">
-        <v>1413.906754930822</v>
+        <v>1481.76609997232</v>
       </c>
       <c r="W16" t="n">
-        <v>1124.489584893861</v>
+        <v>1192.34892993536</v>
       </c>
       <c r="X16" t="n">
-        <v>896.5000339958438</v>
+        <v>964.3593790373424</v>
       </c>
       <c r="Y16" t="n">
-        <v>675.7074548523136</v>
+        <v>743.5667998938122</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G17" t="n">
         <v>380.2757138127629</v>
@@ -5516,7 +5516,7 @@
         <v>373.34422365072</v>
       </c>
       <c r="K17" t="n">
-        <v>893.7741287892015</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L17" t="n">
         <v>1513.293909294976</v>
@@ -5549,7 +5549,7 @@
         <v>4152.297666746068</v>
       </c>
       <c r="V17" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W17" t="n">
         <v>3468.466124132384</v>
@@ -5589,31 +5589,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I18" t="n">
-        <v>94.88738072612962</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J18" t="n">
-        <v>242.5353624779756</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K18" t="n">
-        <v>573.0441050413344</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L18" t="n">
-        <v>573.0441050413344</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M18" t="n">
-        <v>929.9301936362498</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N18" t="n">
-        <v>1552.026157035586</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O18" t="n">
-        <v>2098.90263203578</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="P18" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q18" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R18" t="n">
         <v>2553.812354695766</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>705.9822234696674</v>
+        <v>1099.422008959557</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9822234696674</v>
+        <v>930.4858260316502</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8655840573316</v>
+        <v>780.3691866193144</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9524904749385</v>
+        <v>632.4560930369213</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0625429770282</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="G19" t="n">
-        <v>93.84834815160703</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H19" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I19" t="n">
         <v>93.84834815160703</v>
@@ -5674,7 +5674,7 @@
         <v>172.8304710411609</v>
       </c>
       <c r="K19" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L19" t="n">
         <v>820.2210160948589</v>
@@ -5686,7 +5686,7 @@
         <v>1654.146473931025</v>
       </c>
       <c r="O19" t="n">
-        <v>2021.168930946054</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P19" t="n">
         <v>2311.699365782259</v>
@@ -5695,28 +5695,28 @@
         <v>2429.412499335694</v>
       </c>
       <c r="R19" t="n">
-        <v>2361.553154294195</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S19" t="n">
-        <v>2178.382964033126</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="T19" t="n">
-        <v>1958.704181747508</v>
+        <v>2141.874372008578</v>
       </c>
       <c r="U19" t="n">
-        <v>1669.627968062235</v>
+        <v>1852.798158323305</v>
       </c>
       <c r="V19" t="n">
-        <v>1414.943479856348</v>
+        <v>1598.113670117418</v>
       </c>
       <c r="W19" t="n">
-        <v>1125.526309819387</v>
+        <v>1308.696500080457</v>
       </c>
       <c r="X19" t="n">
-        <v>897.5367589213699</v>
+        <v>1281.070473789797</v>
       </c>
       <c r="Y19" t="n">
-        <v>887.6306882999071</v>
+        <v>1281.070473789797</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C20" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D20" t="n">
         <v>1591.032978284208</v>
@@ -5738,10 +5738,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G20" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H20" t="n">
         <v>93.84834815160703</v>
@@ -5765,10 +5765,10 @@
         <v>2920.783927800321</v>
       </c>
       <c r="O20" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P20" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q20" t="n">
         <v>4566.333620403613</v>
@@ -5783,19 +5783,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U20" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V20" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W20" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X20" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I21" t="n">
-        <v>94.88738072612962</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J21" t="n">
-        <v>242.5353624779756</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K21" t="n">
-        <v>573.0441050413344</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L21" t="n">
-        <v>1063.776437885086</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M21" t="n">
-        <v>1246.245394651197</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="N21" t="n">
-        <v>1868.341358050533</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O21" t="n">
-        <v>1868.341358050533</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P21" t="n">
-        <v>2287.924876476609</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q21" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R21" t="n">
         <v>2553.812354695766</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>495.0957149476003</v>
+        <v>728.0284588996637</v>
       </c>
       <c r="C22" t="n">
-        <v>495.0957149476003</v>
+        <v>559.0922759717569</v>
       </c>
       <c r="D22" t="n">
-        <v>383.6341586955697</v>
+        <v>408.9756365594211</v>
       </c>
       <c r="E22" t="n">
-        <v>235.7210651131766</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F22" t="n">
-        <v>235.7210651131766</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G22" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H22" t="n">
         <v>93.84834815160703</v>
@@ -5911,10 +5911,10 @@
         <v>172.8304710411609</v>
       </c>
       <c r="K22" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117248</v>
       </c>
       <c r="L22" t="n">
-        <v>820.2210160948589</v>
+        <v>820.221016094859</v>
       </c>
       <c r="M22" t="n">
         <v>1239.450608139318</v>
@@ -5932,28 +5932,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R22" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S22" t="n">
-        <v>2178.382964033126</v>
+        <v>2411.31570798519</v>
       </c>
       <c r="T22" t="n">
-        <v>1958.704181747508</v>
+        <v>2191.636925699572</v>
       </c>
       <c r="U22" t="n">
-        <v>1669.627968062235</v>
+        <v>1902.560712014299</v>
       </c>
       <c r="V22" t="n">
-        <v>1414.943479856348</v>
+        <v>1647.876223808412</v>
       </c>
       <c r="W22" t="n">
-        <v>1125.526309819388</v>
+        <v>1358.459053771451</v>
       </c>
       <c r="X22" t="n">
-        <v>897.5367589213702</v>
+        <v>1130.469502873434</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.74417977784</v>
+        <v>909.6769237299035</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2318.26119383137</v>
       </c>
       <c r="C23" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D23" t="n">
         <v>1591.032978284208</v>
@@ -5975,10 +5975,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G23" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H23" t="n">
         <v>93.84834815160703</v>
@@ -5993,10 +5993,10 @@
         <v>842.974607438402</v>
       </c>
       <c r="L23" t="n">
-        <v>1462.494387944177</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M23" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N23" t="n">
         <v>2971.58344915112</v>
@@ -6014,7 +6014,7 @@
         <v>4692.417407580351</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T23" t="n">
         <v>4405.740996026519</v>
@@ -6063,31 +6063,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I24" t="n">
-        <v>94.88738072612962</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J24" t="n">
-        <v>242.5353624779756</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K24" t="n">
-        <v>573.0441050413344</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L24" t="n">
-        <v>1063.776437885086</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M24" t="n">
-        <v>1063.776437885086</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N24" t="n">
-        <v>1321.464883050339</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O24" t="n">
-        <v>1868.341358050533</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="P24" t="n">
-        <v>2287.924876476609</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q24" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R24" t="n">
         <v>2553.812354695766</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>724.8017669852386</v>
+        <v>784.5128849845604</v>
       </c>
       <c r="C25" t="n">
-        <v>555.8655840573316</v>
+        <v>615.5767020566535</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8655840573316</v>
+        <v>465.4600626443178</v>
       </c>
       <c r="E25" t="n">
         <v>407.9524904749385</v>
@@ -6151,7 +6151,7 @@
         <v>432.4591980117246</v>
       </c>
       <c r="L25" t="n">
-        <v>820.2210160948587</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M25" t="n">
         <v>1239.450608139318</v>
@@ -6169,7 +6169,7 @@
         <v>2429.412499335694</v>
       </c>
       <c r="R25" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294195</v>
       </c>
       <c r="S25" t="n">
         <v>2178.382964033126</v>
@@ -6178,19 +6178,19 @@
         <v>1958.704181747508</v>
       </c>
       <c r="U25" t="n">
-        <v>1669.627968062235</v>
+        <v>1669.627968062234</v>
       </c>
       <c r="V25" t="n">
-        <v>1414.943479856348</v>
+        <v>1414.943479856347</v>
       </c>
       <c r="W25" t="n">
-        <v>1355.232361857026</v>
+        <v>1414.943479856347</v>
       </c>
       <c r="X25" t="n">
-        <v>1127.242810959008</v>
+        <v>1186.95392895833</v>
       </c>
       <c r="Y25" t="n">
-        <v>906.4502318154783</v>
+        <v>966.1613498148001</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C26" t="n">
         <v>1949.298676890958</v>
@@ -6212,16 +6212,16 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G26" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H26" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I26" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J26" t="n">
         <v>373.34422365072</v>
@@ -6233,22 +6233,22 @@
         <v>1462.494387944177</v>
       </c>
       <c r="M26" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N26" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O26" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P26" t="n">
         <v>4202.751434297606</v>
       </c>
       <c r="Q26" t="n">
-        <v>4566.333620403612</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R26" t="n">
-        <v>4692.41740758035</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S26" t="n">
         <v>4606.9501443472</v>
@@ -6260,16 +6260,16 @@
         <v>4152.297666746068</v>
       </c>
       <c r="V26" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W26" t="n">
         <v>3468.466124132383</v>
       </c>
       <c r="X26" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H27" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I27" t="n">
-        <v>94.88738072612961</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J27" t="n">
-        <v>242.5353624779756</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K27" t="n">
-        <v>573.0441050413344</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L27" t="n">
-        <v>1063.776437885086</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="M27" t="n">
-        <v>1063.776437885086</v>
+        <v>965.25639787016</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.872401284422</v>
+        <v>1587.352361269496</v>
       </c>
       <c r="O27" t="n">
-        <v>1868.341358050533</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P27" t="n">
-        <v>2287.924876476609</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q27" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R27" t="n">
         <v>2553.812354695766</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>538.7680286442462</v>
+        <v>562.9550599890983</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7680286442462</v>
+        <v>538.7680286442463</v>
       </c>
       <c r="D28" t="n">
         <v>388.6513892319105</v>
@@ -6370,22 +6370,22 @@
         <v>240.7382956495174</v>
       </c>
       <c r="F28" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G28" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H28" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I28" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J28" t="n">
         <v>172.8304710411609</v>
       </c>
       <c r="K28" t="n">
-        <v>432.4591980117245</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L28" t="n">
         <v>820.2210160948589</v>
@@ -6406,28 +6406,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R28" t="n">
-        <v>2405.225467990842</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S28" t="n">
-        <v>2222.055277729772</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T28" t="n">
-        <v>2002.376495444154</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U28" t="n">
-        <v>1713.300281758881</v>
+        <v>1737.487313103733</v>
       </c>
       <c r="V28" t="n">
-        <v>1458.615793552994</v>
+        <v>1482.802824897846</v>
       </c>
       <c r="W28" t="n">
-        <v>1169.198623516033</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X28" t="n">
-        <v>941.2090726180161</v>
+        <v>965.3961039628682</v>
       </c>
       <c r="Y28" t="n">
-        <v>720.4164934744859</v>
+        <v>744.6035248193381</v>
       </c>
     </row>
     <row r="29">
@@ -6470,10 +6470,10 @@
         <v>1462.494387944177</v>
       </c>
       <c r="M29" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N29" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O29" t="n">
         <v>3654.445485610258</v>
@@ -6537,31 +6537,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I30" t="n">
-        <v>94.88738072612962</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J30" t="n">
-        <v>242.5353624779756</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K30" t="n">
-        <v>242.5353624779756</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="L30" t="n">
-        <v>733.2676953217269</v>
+        <v>373.2380436180322</v>
       </c>
       <c r="M30" t="n">
-        <v>1325.286049573855</v>
+        <v>965.25639787016</v>
       </c>
       <c r="N30" t="n">
-        <v>1947.382012973191</v>
+        <v>1587.352361269496</v>
       </c>
       <c r="O30" t="n">
-        <v>2287.924876476609</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P30" t="n">
-        <v>2287.924876476609</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q30" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R30" t="n">
         <v>2553.812354695766</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>678.2659052086699</v>
+        <v>749.780203153487</v>
       </c>
       <c r="C31" t="n">
-        <v>621.3989142446595</v>
+        <v>580.8440202255802</v>
       </c>
       <c r="D31" t="n">
-        <v>471.2822748323238</v>
+        <v>580.8440202255802</v>
       </c>
       <c r="E31" t="n">
-        <v>323.3691812499306</v>
+        <v>580.8440202255802</v>
       </c>
       <c r="F31" t="n">
-        <v>176.4792337520203</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="G31" t="n">
-        <v>176.4792337520203</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H31" t="n">
-        <v>176.4792337520203</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I31" t="n">
         <v>93.84834815160703</v>
@@ -6622,10 +6622,10 @@
         <v>172.8304710411609</v>
       </c>
       <c r="K31" t="n">
-        <v>432.459198011725</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L31" t="n">
-        <v>820.2210160948591</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M31" t="n">
         <v>1239.450608139318</v>
@@ -6646,25 +6646,25 @@
         <v>2361.553154294196</v>
       </c>
       <c r="S31" t="n">
-        <v>2361.553154294196</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T31" t="n">
-        <v>2141.874372008578</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U31" t="n">
-        <v>1852.798158323305</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V31" t="n">
-        <v>1598.113670117418</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="W31" t="n">
-        <v>1308.696500080457</v>
+        <v>1380.210798025274</v>
       </c>
       <c r="X31" t="n">
-        <v>1080.70694918244</v>
+        <v>1152.221247127257</v>
       </c>
       <c r="Y31" t="n">
-        <v>859.9143700389096</v>
+        <v>931.4286679837268</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2298.383983968273</v>
+        <v>2293.255191595923</v>
       </c>
       <c r="C32" t="n">
-        <v>1933.416346579515</v>
+        <v>1928.287554207165</v>
       </c>
       <c r="D32" t="n">
-        <v>1579.145527524418</v>
+        <v>1574.016735152068</v>
       </c>
       <c r="E32" t="n">
-        <v>1193.357274926173</v>
+        <v>1192.223362105477</v>
       </c>
       <c r="F32" t="n">
-        <v>786.366249688219</v>
+        <v>785.2323368675231</v>
       </c>
       <c r="G32" t="n">
-        <v>376.3780221562787</v>
+        <v>375.244109335583</v>
       </c>
       <c r="H32" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I32" t="n">
-        <v>92.81162322608066</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J32" t="n">
-        <v>372.3074987251937</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K32" t="n">
-        <v>841.9378825128756</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L32" t="n">
         <v>1461.45766301865</v>
@@ -6719,31 +6719,31 @@
         <v>4150.915188021281</v>
       </c>
       <c r="Q32" t="n">
-        <v>4514.497374127289</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R32" t="n">
-        <v>4640.581161304027</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S32" t="n">
-        <v>4559.108777622529</v>
+        <v>4559.10877762253</v>
       </c>
       <c r="T32" t="n">
-        <v>4361.894508853502</v>
+        <v>4357.899629301849</v>
       </c>
       <c r="U32" t="n">
-        <v>4112.446059124704</v>
+        <v>4107.317266752355</v>
       </c>
       <c r="V32" t="n">
-        <v>3785.378051332787</v>
+        <v>3780.249258960438</v>
       </c>
       <c r="W32" t="n">
-        <v>3436.604275614326</v>
+        <v>3431.475483241977</v>
       </c>
       <c r="X32" t="n">
-        <v>3067.1333969049</v>
+        <v>3062.00460453255</v>
       </c>
       <c r="Y32" t="n">
-        <v>2680.988944480741</v>
+        <v>2675.860152108392</v>
       </c>
     </row>
     <row r="33">
@@ -6765,40 +6765,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F33" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G33" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H33" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I33" t="n">
-        <v>93.85065580060314</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J33" t="n">
-        <v>241.4986375524491</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="K33" t="n">
-        <v>572.0073801158079</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="L33" t="n">
-        <v>1062.739712959559</v>
+        <v>372.2013186925058</v>
       </c>
       <c r="M33" t="n">
-        <v>1062.739712959559</v>
+        <v>964.2196729446335</v>
       </c>
       <c r="N33" t="n">
-        <v>1684.835676358895</v>
+        <v>1586.31563634397</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.71215135909</v>
+        <v>2133.192111344164</v>
       </c>
       <c r="P33" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q33" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R33" t="n">
         <v>2552.77562977024</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>561.3359575755564</v>
+        <v>561.3359575755596</v>
       </c>
       <c r="C34" t="n">
-        <v>396.3946541993028</v>
+        <v>396.3946541993062</v>
       </c>
       <c r="D34" t="n">
-        <v>396.3946541993028</v>
+        <v>396.3946541993062</v>
       </c>
       <c r="E34" t="n">
-        <v>396.3946541993028</v>
+        <v>396.3946541993062</v>
       </c>
       <c r="F34" t="n">
-        <v>256.0309384998486</v>
+        <v>396.3946541993062</v>
       </c>
       <c r="G34" t="n">
-        <v>92.81162322608054</v>
+        <v>233.1753389255384</v>
       </c>
       <c r="H34" t="n">
-        <v>92.81162322608054</v>
+        <v>171.4476292748403</v>
       </c>
       <c r="I34" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J34" t="n">
-        <v>175.7091275642099</v>
+        <v>175.70912756421</v>
       </c>
       <c r="K34" t="n">
-        <v>439.253235983349</v>
+        <v>439.2532359833494</v>
       </c>
       <c r="L34" t="n">
-        <v>830.9304355150584</v>
+        <v>830.9304355150591</v>
       </c>
       <c r="M34" t="n">
-        <v>1254.075409008093</v>
+        <v>1254.075409008094</v>
       </c>
       <c r="N34" t="n">
         <v>1672.686656248376</v>
       </c>
       <c r="O34" t="n">
-        <v>2043.624494711981</v>
+        <v>2043.624494711982</v>
       </c>
       <c r="P34" t="n">
-        <v>2338.070310996761</v>
+        <v>2338.070310996762</v>
       </c>
       <c r="Q34" t="n">
-        <v>2459.698825998771</v>
+        <v>2459.698825998772</v>
       </c>
       <c r="R34" t="n">
-        <v>2395.834360508926</v>
+        <v>2395.834360508928</v>
       </c>
       <c r="S34" t="n">
-        <v>2216.659049799509</v>
+        <v>2216.659049799511</v>
       </c>
       <c r="T34" t="n">
-        <v>2000.975147065544</v>
+        <v>2000.975147065547</v>
       </c>
       <c r="U34" t="n">
-        <v>1715.893812931925</v>
+        <v>1715.893812931927</v>
       </c>
       <c r="V34" t="n">
-        <v>1465.204204277691</v>
+        <v>1465.204204277693</v>
       </c>
       <c r="W34" t="n">
-        <v>1179.781913792384</v>
+        <v>1179.781913792386</v>
       </c>
       <c r="X34" t="n">
-        <v>955.7872424460197</v>
+        <v>955.7872424460224</v>
       </c>
       <c r="Y34" t="n">
-        <v>738.9895428541429</v>
+        <v>738.9895428541458</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2266.527655542873</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C35" t="n">
-        <v>1922.913545283947</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D35" t="n">
-        <v>1564.647846677196</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E35" t="n">
-        <v>1178.859594078952</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F35" t="n">
         <v>793.22209597083</v>
@@ -6929,16 +6929,16 @@
         <v>379.2389888872365</v>
       </c>
       <c r="H35" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I35" t="n">
-        <v>92.81162322607997</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J35" t="n">
         <v>372.3074987251939</v>
       </c>
       <c r="K35" t="n">
-        <v>841.9378825128761</v>
+        <v>841.9378825128758</v>
       </c>
       <c r="L35" t="n">
         <v>1461.457663018651</v>
@@ -6956,19 +6956,19 @@
         <v>4150.915188021281</v>
       </c>
       <c r="Q35" t="n">
-        <v>4514.497374127289</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R35" t="n">
-        <v>4640.581161304027</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S35" t="n">
-        <v>4555.113898070876</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T35" t="n">
-        <v>4353.904749750194</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U35" t="n">
-        <v>4100.461420469744</v>
+        <v>4100.564128457571</v>
       </c>
       <c r="V35" t="n">
         <v>3769.501241114001</v>
@@ -6977,10 +6977,10 @@
         <v>3416.732585843887</v>
       </c>
       <c r="X35" t="n">
-        <v>3043.266827582807</v>
+        <v>3068.615234264292</v>
       </c>
       <c r="Y35" t="n">
-        <v>2653.127495606995</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="36">
@@ -7002,40 +7002,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F36" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G36" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H36" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I36" t="n">
-        <v>93.85065580060314</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J36" t="n">
-        <v>241.4986375524491</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="K36" t="n">
-        <v>572.0073801158079</v>
+        <v>423.3203657894393</v>
       </c>
       <c r="L36" t="n">
-        <v>1062.739712959559</v>
+        <v>914.0526986331906</v>
       </c>
       <c r="M36" t="n">
-        <v>1654.758067211687</v>
+        <v>1506.071052885318</v>
       </c>
       <c r="N36" t="n">
-        <v>1740.011676550888</v>
+        <v>1506.071052885318</v>
       </c>
       <c r="O36" t="n">
-        <v>2286.888151551083</v>
+        <v>1902.630837358917</v>
       </c>
       <c r="P36" t="n">
-        <v>2286.888151551083</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q36" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R36" t="n">
         <v>2552.77562977024</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>920.9464372636327</v>
+        <v>920.9464372636337</v>
       </c>
       <c r="C37" t="n">
-        <v>777.3586610172111</v>
+        <v>777.3586610172122</v>
       </c>
       <c r="D37" t="n">
-        <v>652.5904282863609</v>
+        <v>652.590428286361</v>
       </c>
       <c r="E37" t="n">
-        <v>530.0257413854531</v>
+        <v>530.0257413854532</v>
       </c>
       <c r="F37" t="n">
         <v>408.4842005690282</v>
       </c>
       <c r="G37" t="n">
-        <v>266.6184124250924</v>
+        <v>266.6184124250925</v>
       </c>
       <c r="H37" t="n">
         <v>150.0941021450083</v>
       </c>
       <c r="I37" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J37" t="n">
-        <v>196.6377195041581</v>
+        <v>196.6377195041583</v>
       </c>
       <c r="K37" t="n">
-        <v>481.1104198632456</v>
+        <v>481.1104198632459</v>
       </c>
       <c r="L37" t="n">
-        <v>893.7162113349036</v>
+        <v>893.716211334904</v>
       </c>
       <c r="M37" t="n">
-        <v>1337.789776767886</v>
+        <v>1337.789776767887</v>
       </c>
       <c r="N37" t="n">
-        <v>1777.329615948117</v>
+        <v>1777.329615948118</v>
       </c>
       <c r="O37" t="n">
-        <v>2169.196046351671</v>
+        <v>2169.196046351672</v>
       </c>
       <c r="P37" t="n">
-        <v>2484.570454576399</v>
+        <v>2484.5704545764</v>
       </c>
       <c r="Q37" t="n">
         <v>2627.127561518359</v>
       </c>
       <c r="R37" t="n">
-        <v>2584.616623158345</v>
+        <v>2584.616623158346</v>
       </c>
       <c r="S37" t="n">
-        <v>2426.794839578761</v>
+        <v>2426.794839578762</v>
       </c>
       <c r="T37" t="n">
-        <v>2232.464463974628</v>
+        <v>2232.464463974629</v>
       </c>
       <c r="U37" t="n">
         <v>1968.736656970841</v>
       </c>
       <c r="V37" t="n">
-        <v>1739.400575446439</v>
+        <v>1739.40057544644</v>
       </c>
       <c r="W37" t="n">
-        <v>1475.331812090964</v>
+        <v>1475.331812090965</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.690667874432</v>
+        <v>1272.690667874433</v>
       </c>
       <c r="Y37" t="n">
-        <v>1077.246495412387</v>
+        <v>1077.246495412388</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2291.876062224359</v>
+        <v>2266.527655542873</v>
       </c>
       <c r="C38" t="n">
         <v>1922.913545283947</v>
@@ -7166,40 +7166,40 @@
         <v>379.2389888872365</v>
       </c>
       <c r="H38" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I38" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J38" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251936</v>
       </c>
       <c r="K38" t="n">
-        <v>841.9378825128758</v>
+        <v>841.9378825128755</v>
       </c>
       <c r="L38" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M38" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N38" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O38" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P38" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.91518802128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R38" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S38" t="n">
-        <v>4555.113898070877</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T38" t="n">
         <v>4354.007457738022</v>
@@ -7208,16 +7208,16 @@
         <v>4100.564128457571</v>
       </c>
       <c r="V38" t="n">
-        <v>3794.849647795486</v>
+        <v>3769.501241114001</v>
       </c>
       <c r="W38" t="n">
-        <v>3442.080992525372</v>
+        <v>3416.732585843887</v>
       </c>
       <c r="X38" t="n">
-        <v>3068.615234264292</v>
+        <v>3043.266827582807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2678.47590228848</v>
+        <v>2653.127495606995</v>
       </c>
     </row>
     <row r="39">
@@ -7239,40 +7239,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F39" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G39" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H39" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I39" t="n">
-        <v>93.85065580060315</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J39" t="n">
-        <v>162.4579826297913</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K39" t="n">
-        <v>162.4579826297913</v>
+        <v>273.0036752628434</v>
       </c>
       <c r="L39" t="n">
-        <v>653.1903154735427</v>
+        <v>763.7360081065948</v>
       </c>
       <c r="M39" t="n">
-        <v>1245.20866972567</v>
+        <v>1355.754362358723</v>
       </c>
       <c r="N39" t="n">
-        <v>1867.304633125007</v>
+        <v>1355.754362358723</v>
       </c>
       <c r="O39" t="n">
-        <v>1867.304633125007</v>
+        <v>1902.630837358917</v>
       </c>
       <c r="P39" t="n">
-        <v>2286.888151551083</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q39" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R39" t="n">
         <v>2552.77562977024</v>
@@ -7312,49 +7312,49 @@
         <v>777.3586610172113</v>
       </c>
       <c r="D40" t="n">
-        <v>652.5904282863609</v>
+        <v>652.590428286361</v>
       </c>
       <c r="E40" t="n">
-        <v>530.0257413854531</v>
+        <v>530.0257413854533</v>
       </c>
       <c r="F40" t="n">
-        <v>408.4842005690281</v>
+        <v>408.4842005690284</v>
       </c>
       <c r="G40" t="n">
-        <v>266.6184124250923</v>
+        <v>266.6184124250924</v>
       </c>
       <c r="H40" t="n">
-        <v>150.094102145008</v>
+        <v>150.0941021450082</v>
       </c>
       <c r="I40" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J40" t="n">
-        <v>196.6377195041578</v>
+        <v>196.6377195041582</v>
       </c>
       <c r="K40" t="n">
-        <v>481.1104198632451</v>
+        <v>481.1104198632457</v>
       </c>
       <c r="L40" t="n">
-        <v>893.7162113349032</v>
+        <v>893.716211334904</v>
       </c>
       <c r="M40" t="n">
-        <v>1337.789776767886</v>
+        <v>1337.789776767887</v>
       </c>
       <c r="N40" t="n">
-        <v>1777.329615948117</v>
+        <v>1777.329615948118</v>
       </c>
       <c r="O40" t="n">
-        <v>2169.19604635167</v>
+        <v>2169.196046351671</v>
       </c>
       <c r="P40" t="n">
-        <v>2484.570454576399</v>
+        <v>2484.5704545764</v>
       </c>
       <c r="Q40" t="n">
-        <v>2627.127561518358</v>
+        <v>2627.127561518359</v>
       </c>
       <c r="R40" t="n">
-        <v>2584.616623158345</v>
+        <v>2584.616623158346</v>
       </c>
       <c r="S40" t="n">
         <v>2426.794839578761</v>
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.527655542873</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.565138602462</v>
       </c>
       <c r="D41" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.299439995711</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.208000760437</v>
+        <v>1178.859594078952</v>
       </c>
       <c r="F41" t="n">
         <v>793.22209597083</v>
@@ -7403,58 +7403,58 @@
         <v>379.2389888872365</v>
       </c>
       <c r="H41" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I41" t="n">
-        <v>92.81162322608066</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J41" t="n">
-        <v>372.3074987251937</v>
+        <v>372.3074987251944</v>
       </c>
       <c r="K41" t="n">
-        <v>841.9378825128756</v>
+        <v>841.9378825128765</v>
       </c>
       <c r="L41" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M41" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N41" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O41" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P41" t="n">
         <v>4150.915188021281</v>
       </c>
       <c r="Q41" t="n">
-        <v>4514.497374127289</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R41" t="n">
-        <v>4640.581161304027</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S41" t="n">
-        <v>4580.462304752361</v>
+        <v>4555.216606058703</v>
       </c>
       <c r="T41" t="n">
-        <v>4379.355864419507</v>
+        <v>4354.007457738022</v>
       </c>
       <c r="U41" t="n">
-        <v>4125.912535139057</v>
+        <v>4100.564128457571</v>
       </c>
       <c r="V41" t="n">
-        <v>3794.849647795486</v>
+        <v>3769.501241114001</v>
       </c>
       <c r="W41" t="n">
-        <v>3442.080992525372</v>
+        <v>3416.732585843887</v>
       </c>
       <c r="X41" t="n">
-        <v>3093.963640945778</v>
+        <v>3043.266827582807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2703.824308969966</v>
+        <v>2653.127495606995</v>
       </c>
     </row>
     <row r="42">
@@ -7476,40 +7476,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F42" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G42" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H42" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I42" t="n">
-        <v>93.85065580060314</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J42" t="n">
-        <v>93.85065580060314</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="K42" t="n">
-        <v>424.3593983639619</v>
+        <v>423.3203657894393</v>
       </c>
       <c r="L42" t="n">
-        <v>915.0917312077133</v>
+        <v>914.0526986331906</v>
       </c>
       <c r="M42" t="n">
-        <v>1117.915713151552</v>
+        <v>1506.071052885318</v>
       </c>
       <c r="N42" t="n">
-        <v>1740.011676550888</v>
+        <v>1586.31563634397</v>
       </c>
       <c r="O42" t="n">
-        <v>2286.888151551083</v>
+        <v>2133.192111344164</v>
       </c>
       <c r="P42" t="n">
-        <v>2286.888151551083</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q42" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R42" t="n">
         <v>2552.77562977024</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>920.9464372636334</v>
+        <v>920.9464372636328</v>
       </c>
       <c r="C43" t="n">
-        <v>777.3586610172118</v>
+        <v>777.3586610172113</v>
       </c>
       <c r="D43" t="n">
-        <v>652.5904282863615</v>
+        <v>652.5904282863609</v>
       </c>
       <c r="E43" t="n">
-        <v>530.0257413854538</v>
+        <v>530.0257413854531</v>
       </c>
       <c r="F43" t="n">
-        <v>408.4842005690288</v>
+        <v>408.4842005690282</v>
       </c>
       <c r="G43" t="n">
         <v>266.6184124250924</v>
       </c>
       <c r="H43" t="n">
-        <v>150.0941021450082</v>
+        <v>150.0941021450083</v>
       </c>
       <c r="I43" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J43" t="n">
-        <v>196.6377195041582</v>
+        <v>196.6377195041583</v>
       </c>
       <c r="K43" t="n">
-        <v>481.1104198632459</v>
+        <v>481.1104198632458</v>
       </c>
       <c r="L43" t="n">
-        <v>893.716211334904</v>
+        <v>893.7162113349038</v>
       </c>
       <c r="M43" t="n">
         <v>1337.789776767887</v>
@@ -7603,7 +7603,7 @@
         <v>1968.736656970841</v>
       </c>
       <c r="V43" t="n">
-        <v>1739.40057544644</v>
+        <v>1739.400575446439</v>
       </c>
       <c r="W43" t="n">
         <v>1475.331812090964</v>
@@ -7612,7 +7612,7 @@
         <v>1272.690667874432</v>
       </c>
       <c r="Y43" t="n">
-        <v>1077.246495412388</v>
+        <v>1077.246495412387</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2266.527655542873</v>
+        <v>2291.773354236531</v>
       </c>
       <c r="C44" t="n">
-        <v>1897.565138602462</v>
+        <v>1948.159243977605</v>
       </c>
       <c r="D44" t="n">
-        <v>1539.299439995711</v>
+        <v>1589.893545370855</v>
       </c>
       <c r="E44" t="n">
-        <v>1178.859594078952</v>
+        <v>1204.10529277261</v>
       </c>
       <c r="F44" t="n">
-        <v>767.8736892893446</v>
+        <v>793.1193879830028</v>
       </c>
       <c r="G44" t="n">
-        <v>353.8905822057511</v>
+        <v>379.1362808994092</v>
       </c>
       <c r="H44" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I44" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J44" t="n">
-        <v>372.3074987251944</v>
+        <v>372.3074987251936</v>
       </c>
       <c r="K44" t="n">
-        <v>841.9378825128765</v>
+        <v>841.9378825128781</v>
       </c>
       <c r="L44" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M44" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957691</v>
       </c>
       <c r="N44" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874797</v>
       </c>
       <c r="O44" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333935</v>
       </c>
       <c r="P44" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021283</v>
       </c>
       <c r="Q44" t="n">
-        <v>4514.497374127289</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R44" t="n">
-        <v>4640.581161304027</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S44" t="n">
-        <v>4555.113898070876</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T44" t="n">
-        <v>4353.904749750194</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U44" t="n">
-        <v>4100.461420469744</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V44" t="n">
-        <v>3769.501241114001</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W44" t="n">
-        <v>3416.732585843887</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X44" t="n">
-        <v>3043.266827582807</v>
+        <v>3068.512526276465</v>
       </c>
       <c r="Y44" t="n">
-        <v>2653.127495606995</v>
+        <v>2678.373194300653</v>
       </c>
     </row>
     <row r="45">
@@ -7713,40 +7713,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F45" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G45" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H45" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I45" t="n">
-        <v>93.85065580060314</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J45" t="n">
-        <v>93.85065580060314</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K45" t="n">
-        <v>424.3593983639619</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L45" t="n">
-        <v>915.0917312077133</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M45" t="n">
-        <v>915.0917312077133</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="N45" t="n">
-        <v>1320.428158124812</v>
+        <v>1355.754362358723</v>
       </c>
       <c r="O45" t="n">
-        <v>1867.304633125007</v>
+        <v>1902.630837358917</v>
       </c>
       <c r="P45" t="n">
-        <v>2286.888151551083</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q45" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R45" t="n">
         <v>2552.77562977024</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>920.9464372636326</v>
+        <v>920.9464372636328</v>
       </c>
       <c r="C46" t="n">
-        <v>777.358661017211</v>
+        <v>777.3586610172113</v>
       </c>
       <c r="D46" t="n">
-        <v>652.5904282863607</v>
+        <v>652.590428286361</v>
       </c>
       <c r="E46" t="n">
-        <v>530.025741385453</v>
+        <v>530.0257413854532</v>
       </c>
       <c r="F46" t="n">
-        <v>408.484200569028</v>
+        <v>408.4842005690283</v>
       </c>
       <c r="G46" t="n">
-        <v>266.6184124250922</v>
+        <v>266.6184124250924</v>
       </c>
       <c r="H46" t="n">
         <v>150.0941021450083</v>
       </c>
       <c r="I46" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J46" t="n">
         <v>196.6377195041583</v>
@@ -7816,7 +7816,7 @@
         <v>1337.789776767887</v>
       </c>
       <c r="N46" t="n">
-        <v>1777.329615948118</v>
+        <v>1777.329615948117</v>
       </c>
       <c r="O46" t="n">
         <v>2169.196046351671</v>
@@ -7837,7 +7837,7 @@
         <v>2232.464463974628</v>
       </c>
       <c r="U46" t="n">
-        <v>1968.73665697084</v>
+        <v>1968.736656970841</v>
       </c>
       <c r="V46" t="n">
         <v>1739.400575446439</v>
@@ -7982,7 +7982,7 @@
         <v>202.1809638361346</v>
       </c>
       <c r="L2" t="n">
-        <v>213.5488567752802</v>
+        <v>267.3451747559029</v>
       </c>
       <c r="M2" t="n">
         <v>257.2476482458454</v>
@@ -7991,13 +7991,13 @@
         <v>258.0880505088102</v>
       </c>
       <c r="O2" t="n">
-        <v>260.1731688314972</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P2" t="n">
         <v>264.7836813017771</v>
       </c>
       <c r="Q2" t="n">
-        <v>207.1020630664798</v>
+        <v>207.1020630664799</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>179.4738158616228</v>
       </c>
       <c r="L3" t="n">
-        <v>173.8211892316314</v>
+        <v>175.9947778369091</v>
       </c>
       <c r="M3" t="n">
-        <v>123.047446830095</v>
+        <v>168.2998526529178</v>
       </c>
       <c r="N3" t="n">
         <v>165.5462778056219</v>
@@ -8073,7 +8073,7 @@
         <v>124.673618687554</v>
       </c>
       <c r="P3" t="n">
-        <v>173.3862381384502</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q3" t="n">
         <v>130.3661252938572</v>
@@ -8219,10 +8219,10 @@
         <v>202.1809638361346</v>
       </c>
       <c r="L5" t="n">
-        <v>267.3451747559029</v>
+        <v>265.1715861506252</v>
       </c>
       <c r="M5" t="n">
-        <v>205.6249188705004</v>
+        <v>259.4212368511231</v>
       </c>
       <c r="N5" t="n">
         <v>258.0880505088102</v>
@@ -8231,7 +8231,7 @@
         <v>260.1731688314972</v>
       </c>
       <c r="P5" t="n">
-        <v>262.6100926964995</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q5" t="n">
         <v>207.1020630664798</v>
@@ -8295,10 +8295,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>179.4738158616228</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L6" t="n">
-        <v>175.9947778369091</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M6" t="n">
         <v>123.047446830095</v>
@@ -8310,10 +8310,10 @@
         <v>178.4699366681766</v>
       </c>
       <c r="P6" t="n">
-        <v>119.5899201578276</v>
+        <v>173.3862381384502</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3661252938572</v>
+        <v>184.1624432744798</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,22 +8453,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>121.189487650591</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>115.1197598344139</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>107.4078405752475</v>
       </c>
       <c r="O8" t="n">
-        <v>131.8171209540511</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>30.47900819501001</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -8535,22 +8535,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>54.8151727771498</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>122.3945845523966</v>
       </c>
       <c r="N9" t="n">
-        <v>103.0416499078842</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>142.5814771643604</v>
       </c>
       <c r="P9" t="n">
-        <v>6.672296850144193</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9164,10 +9164,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>51.31264782909039</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>51.31264782909045</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9413,13 +9413,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>51.31264782908966</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>51.31264782908892</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9641,13 +9641,13 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>51.31264782909045</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>51.31264782908988</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>51.31264782909034</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>51.31264782908875</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10118,13 +10118,13 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>51.31264782909034</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>51.31264782908966</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>28.67595839356659</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>168.0688818921495</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292596</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589019</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>25.79917372379578</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>28.63279811679598</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>50.2915261372895</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.29152613729062</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>76.4907637934203</v>
       </c>
       <c r="D16" t="n">
-        <v>132.5760130750147</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>198.3598893612836</v>
       </c>
       <c r="Y19" t="n">
-        <v>208.7776434368466</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="21">
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>38.26853232870209</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,10 +24139,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
         <v>81.80457674440902</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>163.4226649214594</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,10 +24367,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>89.50146619888369</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>227.4089915172617</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>143.3016600672242</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>43.23559055967968</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>110.9485000442577</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>51.0959520832277</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>144.6605422620756</v>
+        <v>144.6605422620754</v>
       </c>
       <c r="E34" t="n">
-        <v>142.4790318904324</v>
+        <v>142.4790318904323</v>
       </c>
       <c r="F34" t="n">
-        <v>2.506038724334853</v>
+        <v>141.4661172667943</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>136.4990590358171</v>
+        <v>75.38862648162663</v>
       </c>
       <c r="I34" t="n">
-        <v>77.84964598827224</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1229173.135106701</v>
+        <v>1229173.135106703</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1197690.008725989</v>
+        <v>1197690.00872599</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1197690.00872599</v>
+        <v>1197690.008725989</v>
       </c>
     </row>
     <row r="12">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126779</v>
       </c>
       <c r="C2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126779</v>
       </c>
       <c r="D2" t="n">
         <v>225786.4867126781</v>
       </c>
       <c r="E2" t="n">
-        <v>187548.4044340064</v>
+        <v>187548.4044340063</v>
       </c>
       <c r="F2" t="n">
-        <v>220736.9372004586</v>
+        <v>220736.9372004585</v>
       </c>
       <c r="G2" t="n">
         <v>221837.8187076038</v>
@@ -26332,7 +26332,7 @@
         <v>221837.8187076038</v>
       </c>
       <c r="I2" t="n">
-        <v>221837.8187076039</v>
+        <v>221837.8187076038</v>
       </c>
       <c r="J2" t="n">
         <v>221837.8187076038</v>
@@ -26344,16 +26344,16 @@
         <v>222460.1242145318</v>
       </c>
       <c r="M2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="N2" t="n">
         <v>225786.4867126781</v>
       </c>
       <c r="O2" t="n">
-        <v>225786.4867126782</v>
+        <v>225786.486712678</v>
       </c>
       <c r="P2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.486712678</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51775.32557595872</v>
+        <v>51775.3255759587</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>555897.6847765731</v>
+        <v>555897.6847765754</v>
       </c>
       <c r="E3" t="n">
-        <v>556287.9358495735</v>
+        <v>556287.9358495711</v>
       </c>
       <c r="F3" t="n">
         <v>306241.8686975061</v>
       </c>
       <c r="G3" t="n">
-        <v>3551.884390161652</v>
+        <v>3551.884390161528</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>14075.48382172198</v>
+        <v>14075.48382172204</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>63133.76740119688</v>
+        <v>63133.76740119894</v>
       </c>
       <c r="M3" t="n">
-        <v>148416.0546503963</v>
+        <v>148416.0546503944</v>
       </c>
       <c r="N3" t="n">
-        <v>80518.24125636052</v>
+        <v>80518.24125636046</v>
       </c>
       <c r="O3" t="n">
-        <v>3118.611125660933</v>
+        <v>3118.611125660987</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>389279.0943290079</v>
+        <v>389279.094329008</v>
       </c>
       <c r="C4" t="n">
         <v>389279.094329008</v>
       </c>
       <c r="D4" t="n">
-        <v>244352.2997274653</v>
+        <v>244352.2997274642</v>
       </c>
       <c r="E4" t="n">
         <v>7330.627242042245</v>
       </c>
       <c r="F4" t="n">
-        <v>7500.835840494323</v>
+        <v>7500.835840494316</v>
       </c>
       <c r="G4" t="n">
         <v>8630.196431623899</v>
       </c>
       <c r="H4" t="n">
-        <v>8630.196431623881</v>
+        <v>8630.196431623865</v>
       </c>
       <c r="I4" t="n">
-        <v>8630.196431623885</v>
+        <v>8630.196431623899</v>
       </c>
       <c r="J4" t="n">
-        <v>8630.196431623863</v>
+        <v>8630.196431623895</v>
       </c>
       <c r="K4" t="n">
-        <v>8630.196431623881</v>
+        <v>8630.196431623897</v>
       </c>
       <c r="L4" t="n">
-        <v>11087.10304034249</v>
+        <v>11087.10304034258</v>
       </c>
       <c r="M4" t="n">
-        <v>18043.21388444098</v>
+        <v>18043.21388444094</v>
       </c>
       <c r="N4" t="n">
-        <v>18043.2138844409</v>
+        <v>18043.213884441</v>
       </c>
       <c r="O4" t="n">
+        <v>18043.21388444092</v>
+      </c>
+      <c r="P4" t="n">
         <v>18043.21388444095</v>
-      </c>
-      <c r="P4" t="n">
-        <v>18043.21388444097</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>37661.87961689879</v>
       </c>
       <c r="D5" t="n">
-        <v>65030.64452649849</v>
+        <v>65030.64452649893</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
@@ -26500,16 +26500,16 @@
         <v>100474.6155875761</v>
       </c>
       <c r="M5" t="n">
+        <v>102251.8335631312</v>
+      </c>
+      <c r="N5" t="n">
         <v>102251.8335631311</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>102251.8335631312</v>
       </c>
-      <c r="O5" t="n">
-        <v>102251.8335631311</v>
-      </c>
       <c r="P5" t="n">
-        <v>102251.8335631311</v>
+        <v>102251.8335631312</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-252929.8128091874</v>
+        <v>-252929.8128091875</v>
       </c>
       <c r="C6" t="n">
-        <v>-201154.4872332287</v>
+        <v>-201154.4872332289</v>
       </c>
       <c r="D6" t="n">
-        <v>-639494.1423178588</v>
+        <v>-639494.1423178605</v>
       </c>
       <c r="E6" t="n">
-        <v>-450376.4992190026</v>
+        <v>-450724.1181488064</v>
       </c>
       <c r="F6" t="n">
-        <v>-193147.8958513803</v>
+        <v>-193193.8008469459</v>
       </c>
       <c r="G6" t="n">
-        <v>108725.6984285798</v>
+        <v>108689.8014467156</v>
       </c>
       <c r="H6" t="n">
-        <v>112277.5828187414</v>
+        <v>112241.6858368771</v>
       </c>
       <c r="I6" t="n">
-        <v>112277.5828187414</v>
+        <v>112241.6858368771</v>
       </c>
       <c r="J6" t="n">
-        <v>98202.09899701942</v>
+        <v>98166.20201515504</v>
       </c>
       <c r="K6" t="n">
-        <v>112277.5828187414</v>
+        <v>112241.6858368771</v>
       </c>
       <c r="L6" t="n">
-        <v>47764.63818541633</v>
+        <v>47734.3985263401</v>
       </c>
       <c r="M6" t="n">
-        <v>-42924.6153852904</v>
+        <v>-42924.61538528837</v>
       </c>
       <c r="N6" t="n">
-        <v>24973.19800874556</v>
+        <v>24973.19800874547</v>
       </c>
       <c r="O6" t="n">
-        <v>102372.8281394451</v>
+        <v>102372.828139445</v>
       </c>
       <c r="P6" t="n">
-        <v>105491.439265106</v>
+        <v>105491.4392651059</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.954930756136771</v>
+        <v>3.954930756136917</v>
       </c>
       <c r="M2" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="N2" t="n">
-        <v>25.09492261467052</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="O2" t="n">
         <v>25.09492261467054</v>
       </c>
       <c r="P2" t="n">
-        <v>25.09492261467053</v>
+        <v>25.09492261467054</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912533</v>
+        <v>35.02126071912532</v>
       </c>
       <c r="C3" t="n">
         <v>35.02126071912533</v>
@@ -26793,13 +26793,13 @@
         <v>53.79631798062264</v>
       </c>
       <c r="D4" t="n">
-        <v>303.7050253146163</v>
+        <v>303.7050253146236</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
         <v>1173.104351895088</v>
@@ -26823,7 +26823,7 @@
         <v>1160.145290326007</v>
       </c>
       <c r="N4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="O4" t="n">
         <v>1160.145290326007</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.954930756136771</v>
+        <v>3.954930756136917</v>
       </c>
       <c r="M2" t="n">
-        <v>21.13999185853377</v>
+        <v>21.13999185853365</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912533</v>
+        <v>35.02126071912532</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26969,7 +26969,7 @@
         <v>496.3006002552332</v>
       </c>
       <c r="F3" t="n">
-        <v>268.2643481230878</v>
+        <v>268.2643481230875</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27015,40 +27015,40 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>249.9087073339935</v>
+        <v>249.908707334001</v>
       </c>
       <c r="E4" t="n">
-        <v>527.6964300876764</v>
+        <v>527.696430087669</v>
       </c>
       <c r="F4" t="n">
+        <v>328.7438349237143</v>
+      </c>
+      <c r="G4" t="n">
+        <v>12.95906156908086</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>53.79631798062269</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>236.9496457649201</v>
+      </c>
+      <c r="M4" t="n">
+        <v>527.696430087669</v>
+      </c>
+      <c r="N4" t="n">
         <v>328.7438349237138</v>
       </c>
-      <c r="G4" t="n">
+      <c r="O4" t="n">
         <v>12.95906156908131</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>53.79631798062246</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>236.9496457649125</v>
-      </c>
-      <c r="M4" t="n">
-        <v>527.6964300876764</v>
-      </c>
-      <c r="N4" t="n">
-        <v>328.7438349237141</v>
-      </c>
-      <c r="O4" t="n">
-        <v>12.95906156908109</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27261,16 +27261,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>249.9087073339935</v>
+        <v>249.908707334001</v>
       </c>
       <c r="M4" t="n">
-        <v>527.6964300876764</v>
+        <v>527.696430087669</v>
       </c>
       <c r="N4" t="n">
-        <v>328.7438349237138</v>
+        <v>328.7438349237143</v>
       </c>
       <c r="O4" t="n">
-        <v>12.95906156908131</v>
+        <v>12.95906156908086</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>328.9375236828579</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>311.4765737903849</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>356.5845674639603</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>353.0797277610888</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>361.3656305466968</v>
       </c>
       <c r="H2" t="n">
         <v>338.0329468943008</v>
@@ -27445,7 +27445,7 @@
         <v>315.9347826978464</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>338.8541417787212</v>
       </c>
     </row>
     <row r="3">
@@ -27458,10 +27458,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>125.3247021109833</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>100.0612686873063</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27470,7 +27470,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>83.47187043311668</v>
       </c>
       <c r="H3" t="n">
         <v>111.5079271034444</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>41.68452591975692</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
         <v>170.2839726213331</v>
@@ -27512,10 +27512,10 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>172.1401082615712</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>179.0042691688026</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>92.63764466594654</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,7 +27552,7 @@
         <v>167.9278262653587</v>
       </c>
       <c r="H4" t="n">
-        <v>107.8693661172546</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I4" t="n">
         <v>153.551289182031</v>
@@ -27582,7 +27582,7 @@
         <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
-        <v>174.4537986637794</v>
+        <v>120.6574806831568</v>
       </c>
       <c r="S4" t="n">
         <v>222.9160118599466</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>272.780758330581</v>
       </c>
       <c r="X4" t="n">
-        <v>211.9674153830272</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>164.7883353714722</v>
       </c>
     </row>
     <row r="5">
@@ -27619,7 +27619,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>300.8867236400603</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,7 +27628,7 @@
         <v>353.0797277610888</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>361.3656305466968</v>
       </c>
       <c r="H5" t="n">
         <v>338.0329468943008</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>108.8034333352664</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S5" t="n">
-        <v>152.0155225457752</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T5" t="n">
         <v>222.4795457699687</v>
@@ -27676,10 +27676,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>295.4446507367904</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>322.3473038011366</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>112.7368656692447</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27707,10 +27707,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.2681884137393</v>
+        <v>89.88439153640687</v>
       </c>
       <c r="H6" t="n">
-        <v>111.5079271034444</v>
+        <v>57.71160912282181</v>
       </c>
       <c r="I6" t="n">
         <v>86.80307722268739</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>41.68452591975693</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S6" t="n">
-        <v>170.2839726213331</v>
+        <v>116.4876546407105</v>
       </c>
       <c r="T6" t="n">
-        <v>146.0647829915492</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U6" t="n">
         <v>225.9364262421938</v>
@@ -27755,10 +27755,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>197.898665180297</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>158.389188326145</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27780,13 +27780,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>132.6917226405592</v>
+        <v>92.63764466594654</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>91.62473004230861</v>
       </c>
       <c r="G7" t="n">
-        <v>114.1315082847361</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H7" t="n">
         <v>161.6656840978772</v>
@@ -27798,7 +27798,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K7" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27825,10 +27825,10 @@
         <v>222.9160118599466</v>
       </c>
       <c r="T7" t="n">
-        <v>173.8794355044132</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3155846423218</v>
+        <v>233.7092773014012</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>171.9133374084145</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>327.8823184813261</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>50.97801630605932</v>
       </c>
       <c r="E8" t="n">
-        <v>78.22534475764553</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>103.1710204270878</v>
       </c>
       <c r="G8" t="n">
-        <v>152.2895633905343</v>
+        <v>109.2118786313132</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
@@ -27904,7 +27904,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>66.02607536385278</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>82.53291334143734</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27932,10 +27932,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -27944,7 +27944,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H9" t="n">
         <v>99.90681807664345</v>
@@ -27980,7 +27980,7 @@
         <v>20.90078060183509</v>
       </c>
       <c r="S9" t="n">
-        <v>147.9721212459916</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>195.0194028815133</v>
@@ -27992,10 +27992,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>89.8466620637613</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>170.2103810373885</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>85.51665180312938</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>126.6698678543838</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28524,7 +28524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3.954930756136771</v>
+        <v>3.954930756136917</v>
       </c>
       <c r="C32" t="n">
-        <v>3.954930756136771</v>
+        <v>3.954930756136917</v>
       </c>
       <c r="D32" t="n">
-        <v>3.954930756136771</v>
+        <v>3.954930756136917</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>3.954930756136917</v>
       </c>
       <c r="F32" t="n">
-        <v>3.954930756136771</v>
+        <v>3.954930756136917</v>
       </c>
       <c r="G32" t="n">
-        <v>3.954930756136771</v>
+        <v>3.954930756136917</v>
       </c>
       <c r="H32" t="n">
-        <v>2.832357063648146</v>
+        <v>3.954930756136917</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>3.954930756136771</v>
+        <v>3.954930756136917</v>
       </c>
       <c r="T32" t="n">
-        <v>3.954930756136771</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>3.954930756136771</v>
+        <v>2.832357063647208</v>
       </c>
       <c r="V32" t="n">
-        <v>3.954930756136771</v>
+        <v>3.954930756136917</v>
       </c>
       <c r="W32" t="n">
-        <v>3.954930756136771</v>
+        <v>3.954930756136917</v>
       </c>
       <c r="X32" t="n">
-        <v>3.954930756136771</v>
+        <v>3.954930756136917</v>
       </c>
       <c r="Y32" t="n">
-        <v>3.954930756136771</v>
+        <v>3.954930756136917</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.954930756136771</v>
+        <v>3.954930756136917</v>
       </c>
       <c r="C34" t="n">
-        <v>3.954930756136771</v>
+        <v>3.954930756136917</v>
       </c>
       <c r="D34" t="n">
-        <v>3.954930756136771</v>
+        <v>3.954930756136917</v>
       </c>
       <c r="E34" t="n">
-        <v>3.954930756136771</v>
+        <v>3.954930756136917</v>
       </c>
       <c r="F34" t="n">
-        <v>3.954930756136771</v>
+        <v>3.954930756136917</v>
       </c>
       <c r="G34" t="n">
-        <v>3.954930756136771</v>
+        <v>3.954930756136917</v>
       </c>
       <c r="H34" t="n">
-        <v>3.954930756136771</v>
+        <v>3.954930756136917</v>
       </c>
       <c r="I34" t="n">
-        <v>3.954930756136771</v>
+        <v>3.954930756136917</v>
       </c>
       <c r="J34" t="n">
-        <v>3.954930756136771</v>
+        <v>3.954930756136917</v>
       </c>
       <c r="K34" t="n">
-        <v>3.954930756136771</v>
+        <v>3.954930756136917</v>
       </c>
       <c r="L34" t="n">
-        <v>3.954930756136771</v>
+        <v>3.954930756136917</v>
       </c>
       <c r="M34" t="n">
-        <v>3.954930756136771</v>
+        <v>3.954930756136917</v>
       </c>
       <c r="N34" t="n">
-        <v>3.954930756136771</v>
+        <v>3.954930756136917</v>
       </c>
       <c r="O34" t="n">
-        <v>3.954930756136771</v>
+        <v>3.954930756136917</v>
       </c>
       <c r="P34" t="n">
-        <v>3.954930756136771</v>
+        <v>3.954930756136917</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.954930756136771</v>
+        <v>3.954930756136917</v>
       </c>
       <c r="R34" t="n">
-        <v>3.954930756136771</v>
+        <v>3.954930756136917</v>
       </c>
       <c r="S34" t="n">
-        <v>3.954930756136771</v>
+        <v>3.954930756136917</v>
       </c>
       <c r="T34" t="n">
-        <v>3.954930756136771</v>
+        <v>3.954930756136917</v>
       </c>
       <c r="U34" t="n">
-        <v>3.954930756136771</v>
+        <v>3.954930756136917</v>
       </c>
       <c r="V34" t="n">
-        <v>3.954930756136771</v>
+        <v>3.954930756136917</v>
       </c>
       <c r="W34" t="n">
-        <v>3.954930756136771</v>
+        <v>3.954930756136917</v>
       </c>
       <c r="X34" t="n">
-        <v>3.954930756136771</v>
+        <v>3.954930756136917</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.954930756136771</v>
+        <v>3.954930756136917</v>
       </c>
     </row>
     <row r="35">
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>25.09492261467054</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>25.09492261467054</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30040,19 +30040,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>0.1016809079487189</v>
       </c>
       <c r="V35" t="n">
-        <v>0.1016809079496852</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>25.09492261467057</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="C37" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="D37" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="E37" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="F37" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="G37" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="H37" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="I37" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="J37" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="K37" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="L37" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="M37" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="N37" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="O37" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="P37" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="Q37" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="R37" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="S37" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="T37" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="U37" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="V37" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="W37" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="X37" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="Y37" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
     </row>
     <row r="38">
@@ -30223,10 +30223,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="D38" t="n">
-        <v>25.09492261467052</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30274,13 +30274,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0.1016809079480936</v>
+        <v>0.1016809079498842</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>25.09492261467052</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>25.09492261467052</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="C40" t="n">
-        <v>25.09492261467052</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="D40" t="n">
-        <v>25.09492261467052</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="E40" t="n">
-        <v>25.09492261467052</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="F40" t="n">
-        <v>25.09492261467052</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="G40" t="n">
-        <v>25.09492261467052</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="H40" t="n">
-        <v>25.09492261467052</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="I40" t="n">
-        <v>25.09492261467052</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="J40" t="n">
-        <v>25.09492261467052</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="K40" t="n">
-        <v>25.09492261467052</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="L40" t="n">
-        <v>25.09492261467052</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="M40" t="n">
-        <v>25.09492261467052</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="N40" t="n">
-        <v>25.09492261467052</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="O40" t="n">
-        <v>25.09492261467052</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="P40" t="n">
-        <v>25.09492261467052</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="Q40" t="n">
-        <v>25.09492261467052</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="R40" t="n">
-        <v>25.09492261467052</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="S40" t="n">
-        <v>25.09492261467052</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="T40" t="n">
-        <v>25.09492261467052</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="U40" t="n">
-        <v>25.09492261467052</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="V40" t="n">
-        <v>25.09492261467052</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="W40" t="n">
-        <v>25.09492261467052</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="X40" t="n">
-        <v>25.09492261467052</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="Y40" t="n">
-        <v>25.09492261467052</v>
+        <v>25.09492261467057</v>
       </c>
     </row>
     <row r="41">
@@ -30466,10 +30466,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30508,10 +30508,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>25.09492261467054</v>
+        <v>0.1016809079483778</v>
       </c>
       <c r="T41" t="n">
-        <v>0.1016809079490031</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30523,7 +30523,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>25.09492261467054</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -30697,13 +30697,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>25.09492261467053</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>25.09492261467053</v>
+        <v>0.1016809079490031</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30754,13 +30754,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0.1016809079496852</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>25.09492261467053</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="C46" t="n">
-        <v>25.09492261467053</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="D46" t="n">
-        <v>25.09492261467053</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="E46" t="n">
-        <v>25.09492261467053</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="F46" t="n">
-        <v>25.09492261467053</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="G46" t="n">
-        <v>25.09492261467053</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="H46" t="n">
-        <v>25.09492261467053</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="I46" t="n">
-        <v>25.09492261467053</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="J46" t="n">
-        <v>25.09492261467053</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="K46" t="n">
-        <v>25.09492261467053</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="L46" t="n">
-        <v>25.09492261467053</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="M46" t="n">
-        <v>25.09492261467053</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="N46" t="n">
-        <v>25.09492261467053</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="O46" t="n">
-        <v>25.09492261467053</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="P46" t="n">
-        <v>25.09492261467053</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="Q46" t="n">
-        <v>25.09492261467053</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="R46" t="n">
-        <v>25.09492261467053</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="S46" t="n">
-        <v>25.09492261467053</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="T46" t="n">
-        <v>25.09492261467053</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="U46" t="n">
-        <v>25.09492261467053</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="V46" t="n">
-        <v>25.09492261467053</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="W46" t="n">
-        <v>25.09492261467053</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="X46" t="n">
-        <v>25.09492261467053</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="Y46" t="n">
-        <v>25.09492261467053</v>
+        <v>25.09492261467054</v>
       </c>
     </row>
   </sheetData>
@@ -31045,16 +31045,16 @@
         <v>1.4418552214663</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760119</v>
+        <v>5.427767452760118</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884599</v>
+        <v>17.90888720884598</v>
       </c>
       <c r="L2" t="n">
-        <v>22.21755819470702</v>
+        <v>22.21755819470701</v>
       </c>
       <c r="M2" t="n">
         <v>24.72131435677232</v>
@@ -31072,16 +31072,16 @@
         <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>8.843836255870379</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S2" t="n">
         <v>3.208229059847512</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626979</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07532874947132619</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7275171330520188</v>
+        <v>0.7275171330520186</v>
       </c>
       <c r="I3" t="n">
         <v>2.593555628727678</v>
       </c>
       <c r="J3" t="n">
-        <v>7.11691487877999</v>
+        <v>7.116914878779988</v>
       </c>
       <c r="K3" t="n">
         <v>12.16394109335884</v>
@@ -31139,7 +31139,7 @@
         <v>19.0865870919233</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833409</v>
+        <v>19.59175225833408</v>
       </c>
       <c r="O3" t="n">
         <v>17.92262575689049</v>
@@ -31148,19 +31148,19 @@
         <v>14.38448725650263</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164375</v>
+        <v>9.615648792164373</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263569</v>
+        <v>4.676990252263568</v>
       </c>
       <c r="S3" t="n">
         <v>1.399198482504676</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497752</v>
+        <v>0.3036277226497751</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008304</v>
+        <v>0.004955838781008303</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,43 +31197,43 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006206</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623703</v>
+        <v>0.5614884095623702</v>
       </c>
       <c r="I4" t="n">
-        <v>1.899185745227322</v>
+        <v>1.899185745227321</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174388</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170845</v>
+        <v>7.337241180170844</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894684</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948818</v>
+        <v>9.899534402948817</v>
       </c>
       <c r="N4" t="n">
-        <v>9.664145601394049</v>
+        <v>9.664145601394047</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179686</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938413</v>
+        <v>7.638079550938411</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.288210368587925</v>
+        <v>5.288210368587923</v>
       </c>
       <c r="R4" t="n">
-        <v>2.839592713390063</v>
+        <v>2.839592713390062</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025627</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T4" t="n">
         <v>0.2698359432457196</v>
@@ -32072,10 +32072,10 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>471.6886536848224</v>
@@ -32090,7 +32090,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>392.9727799466968</v>
+        <v>543.1616833066651</v>
       </c>
       <c r="P15" t="n">
         <v>557.7961431982454</v>
@@ -32309,7 +32309,7 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I18" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>275.9770021735818</v>
@@ -32318,25 +32318,25 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M18" t="n">
-        <v>502.6250325027409</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N18" t="n">
         <v>759.7214730927639</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426205</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>557.7961431982454</v>
+        <v>413.7326212867942</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.25758340862161</v>
@@ -32546,7 +32546,7 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I21" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>275.9770021735818</v>
@@ -32558,13 +32558,13 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M21" t="n">
-        <v>326.4461114635448</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927639</v>
+        <v>428.3656332688745</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P21" t="n">
         <v>557.7961431982454</v>
@@ -32573,7 +32573,7 @@
         <v>372.8719498286953</v>
       </c>
       <c r="R21" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.25758340862161</v>
@@ -32783,7 +32783,7 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I24" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>275.9770021735818</v>
@@ -32795,22 +32795,22 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N24" t="n">
-        <v>391.6330708361143</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O24" t="n">
-        <v>694.9967242426205</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>557.7961431982454</v>
+        <v>413.7326212867942</v>
       </c>
       <c r="Q24" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.25758340862161</v>
@@ -33020,7 +33020,7 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I27" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>275.9770021735818</v>
@@ -33029,25 +33029,25 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L27" t="n">
-        <v>634.2436048745725</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>539.3575949355013</v>
       </c>
       <c r="N27" t="n">
         <v>759.7214730927639</v>
       </c>
       <c r="O27" t="n">
-        <v>326.9083219859709</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P27" t="n">
         <v>557.7961431982454</v>
       </c>
       <c r="Q27" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.25758340862161</v>
@@ -33257,16 +33257,16 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I30" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>634.2436048745725</v>
+        <v>420.7661933823238</v>
       </c>
       <c r="M30" t="n">
         <v>740.1323715504302</v>
@@ -33275,16 +33275,16 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O30" t="n">
-        <v>486.5789348519376</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q30" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.25758340862161</v>
@@ -33494,19 +33494,19 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I33" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>634.2436048745725</v>
+        <v>420.7661933823239</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N33" t="n">
         <v>759.7214730927639</v>
@@ -33515,13 +33515,13 @@
         <v>694.9967242426205</v>
       </c>
       <c r="P33" t="n">
-        <v>422.5979166842698</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.25758340862161</v>
@@ -33731,10 +33731,10 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I36" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>471.6886536848224</v>
@@ -33746,19 +33746,19 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N36" t="n">
-        <v>217.4564689916175</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>694.9967242426205</v>
+        <v>543.1616833066651</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q36" t="n">
         <v>372.8719498286953</v>
       </c>
       <c r="R36" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.25758340862161</v>
@@ -33968,13 +33968,13 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I39" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>196.1379567971598</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>170.7142372419518</v>
       </c>
       <c r="L39" t="n">
         <v>634.2436048745725</v>
@@ -33983,10 +33983,10 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P39" t="n">
         <v>557.7961431982454</v>
@@ -33995,7 +33995,7 @@
         <v>372.8719498286953</v>
       </c>
       <c r="R39" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.25758340862161</v>
@@ -34205,7 +34205,7 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I42" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34217,22 +34217,22 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M42" t="n">
-        <v>347.0067429561989</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N42" t="n">
-        <v>759.7214730927639</v>
+        <v>212.396846890052</v>
       </c>
       <c r="O42" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q42" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.25758340862161</v>
@@ -34369,7 +34369,7 @@
         <v>463.3649706874065</v>
       </c>
       <c r="K44" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830457</v>
       </c>
       <c r="L44" t="n">
         <v>861.5439710364265</v>
@@ -34442,10 +34442,10 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I45" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K45" t="n">
         <v>471.6886536848224</v>
@@ -34457,7 +34457,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>540.7724463430293</v>
+        <v>428.3656332688745</v>
       </c>
       <c r="O45" t="n">
         <v>694.9967242426205</v>
@@ -34469,7 +34469,7 @@
         <v>372.8719498286953</v>
       </c>
       <c r="R45" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.25758340862161</v>
@@ -34702,7 +34702,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="M2" t="n">
         <v>51.62272937534495</v>
@@ -34711,7 +34711,7 @@
         <v>53.79631798062264</v>
       </c>
       <c r="O2" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>53.79631798062264</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6.370323552522131</v>
       </c>
       <c r="K3" t="n">
         <v>53.79631798062264</v>
       </c>
       <c r="L3" t="n">
-        <v>51.62272937534495</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>45.25240582282282</v>
       </c>
       <c r="N3" t="n">
         <v>53.79631798062264</v>
@@ -34793,7 +34793,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34872,7 +34872,7 @@
         <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831901</v>
+        <v>4.916638815831899</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34939,10 +34939,10 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
+        <v>51.62272937534495</v>
+      </c>
+      <c r="M5" t="n">
         <v>53.79631798062264</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>53.79631798062264</v>
@@ -34951,7 +34951,7 @@
         <v>53.79631798062264</v>
       </c>
       <c r="P5" t="n">
-        <v>51.62272937534497</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>6.370323552522133</v>
       </c>
       <c r="K6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>45.25240582282282</v>
+        <v>45.25240582282281</v>
       </c>
       <c r="O6" t="n">
         <v>53.79631798062264</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>204.5866134835126</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
         <v>140.7360160012659</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>303.7050253146236</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>303.7050253146236</v>
       </c>
       <c r="O8" t="n">
-        <v>303.7050253146163</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>142.3318619824105</v>
       </c>
       <c r="Q8" t="n">
         <v>35.33749497130819</v>
@@ -35255,22 +35255,22 @@
         <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
-        <v>138.615755571408</v>
+        <v>193.4309283485578</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>303.7050253146236</v>
       </c>
       <c r="N9" t="n">
-        <v>303.7050253146163</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1235481502633</v>
+        <v>303.7050253146236</v>
       </c>
       <c r="P9" t="n">
-        <v>116.4597994029713</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>333.8472147104634</v>
@@ -35738,7 +35738,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>250.3765355022524</v>
+        <v>400.5654388622207</v>
       </c>
       <c r="P15" t="n">
         <v>423.8217357839152</v>
@@ -35820,7 +35820,7 @@
         <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931365</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q16" t="n">
         <v>118.9021551044799</v>
@@ -35884,10 +35884,10 @@
         <v>282.3190661607202</v>
       </c>
       <c r="K17" t="n">
-        <v>525.686772867153</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7775560664393</v>
+        <v>677.0902038955297</v>
       </c>
       <c r="M17" t="n">
         <v>728.2874363020583</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>149.1393755069151</v>
@@ -35966,25 +35966,25 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M18" t="n">
-        <v>360.4909985807226</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N18" t="n">
         <v>628.3797610094306</v>
       </c>
       <c r="O18" t="n">
-        <v>552.4004797981761</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>423.8217357839152</v>
+        <v>279.758213872464</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36133,13 +36133,13 @@
         <v>744.73230092637</v>
       </c>
       <c r="O20" t="n">
-        <v>741.0722806160982</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P20" t="n">
         <v>553.844392613483</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404112</v>
+        <v>418.5673812695001</v>
       </c>
       <c r="R20" t="n">
         <v>127.3573607845842</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>149.1393755069151</v>
@@ -36206,13 +36206,13 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M21" t="n">
-        <v>184.3120775415265</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094306</v>
+        <v>297.0239211855412</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P21" t="n">
         <v>423.8217357839152</v>
@@ -36221,7 +36221,7 @@
         <v>232.8901757426738</v>
       </c>
       <c r="R21" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36361,13 +36361,13 @@
         <v>474.3741250380626</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7775560664393</v>
+        <v>677.0902038955297</v>
       </c>
       <c r="M23" t="n">
         <v>728.2874363020583</v>
       </c>
       <c r="N23" t="n">
-        <v>796.0449487554599</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O23" t="n">
         <v>689.7596327870085</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>149.1393755069151</v>
@@ -36443,22 +36443,22 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N24" t="n">
-        <v>260.291358752781</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O24" t="n">
-        <v>552.4004797981761</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>423.8217357839152</v>
+        <v>279.758213872464</v>
       </c>
       <c r="Q24" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>625.7775560664393</v>
       </c>
       <c r="M26" t="n">
-        <v>728.2874363020583</v>
+        <v>779.6000841311486</v>
       </c>
       <c r="N26" t="n">
         <v>744.73230092637</v>
@@ -36610,7 +36610,7 @@
         <v>689.7596327870085</v>
       </c>
       <c r="P26" t="n">
-        <v>605.1570404425718</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q26" t="n">
         <v>367.2547334404112</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>149.1393755069151</v>
@@ -36677,25 +36677,25 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L27" t="n">
-        <v>495.6892250946983</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>397.223561013483</v>
       </c>
       <c r="N27" t="n">
         <v>628.3797610094306</v>
       </c>
       <c r="O27" t="n">
-        <v>184.3120775415265</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P27" t="n">
         <v>423.8217357839152</v>
       </c>
       <c r="Q27" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36838,13 +36838,13 @@
         <v>625.7775560664393</v>
       </c>
       <c r="M29" t="n">
-        <v>728.2874363020583</v>
+        <v>779.6000841311486</v>
       </c>
       <c r="N29" t="n">
         <v>744.73230092637</v>
       </c>
       <c r="O29" t="n">
-        <v>741.0722806160982</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P29" t="n">
         <v>553.844392613483</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>495.6892250946983</v>
+        <v>282.2118136024496</v>
       </c>
       <c r="M30" t="n">
         <v>597.9983376284119</v>
@@ -36923,16 +36923,16 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O30" t="n">
-        <v>343.9826904074931</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q30" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,19 +37142,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>495.6892250946983</v>
+        <v>282.2118136024497</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N33" t="n">
         <v>628.3797610094306</v>
@@ -37163,13 +37163,13 @@
         <v>552.4004797981761</v>
       </c>
       <c r="P33" t="n">
-        <v>288.6235092699395</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>83.7348528667973</v>
+        <v>83.73485286679744</v>
       </c>
       <c r="K34" t="n">
-        <v>266.2061701203425</v>
+        <v>266.2061701203426</v>
       </c>
       <c r="L34" t="n">
-        <v>395.6335348805148</v>
+        <v>395.6335348805149</v>
       </c>
       <c r="M34" t="n">
-        <v>427.4191651444796</v>
+        <v>427.4191651444797</v>
       </c>
       <c r="N34" t="n">
-        <v>422.8396436770528</v>
+        <v>422.8396436770529</v>
       </c>
       <c r="O34" t="n">
-        <v>374.6846853167727</v>
+        <v>374.6846853167729</v>
       </c>
       <c r="P34" t="n">
-        <v>297.4200164492727</v>
+        <v>297.4200164492728</v>
       </c>
       <c r="Q34" t="n">
-        <v>122.8570858606166</v>
+        <v>122.8570858606168</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>333.8472147104634</v>
@@ -37394,19 +37394,19 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N36" t="n">
-        <v>86.11475690828422</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>552.4004797981761</v>
+        <v>400.5654388622207</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q36" t="n">
         <v>232.8901757426738</v>
       </c>
       <c r="R36" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>69.30033013049311</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>32.87279826759286</v>
       </c>
       <c r="L39" t="n">
         <v>495.6892250946983</v>
@@ -37631,10 +37631,10 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P39" t="n">
         <v>423.8217357839152</v>
@@ -37643,7 +37643,7 @@
         <v>232.8901757426738</v>
       </c>
       <c r="R39" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>104.874844725331</v>
+        <v>104.8748447253311</v>
       </c>
       <c r="K40" t="n">
-        <v>287.3461619788762</v>
+        <v>287.3461619788763</v>
       </c>
       <c r="L40" t="n">
-        <v>416.7735267390485</v>
+        <v>416.7735267390486</v>
       </c>
       <c r="M40" t="n">
-        <v>448.5591570030133</v>
+        <v>448.5591570030134</v>
       </c>
       <c r="N40" t="n">
         <v>443.9796355355866</v>
@@ -37716,7 +37716,7 @@
         <v>395.8246771753065</v>
       </c>
       <c r="P40" t="n">
-        <v>318.5600083078064</v>
+        <v>318.5600083078065</v>
       </c>
       <c r="Q40" t="n">
         <v>143.9970777191504</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M42" t="n">
-        <v>204.8727090341806</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N42" t="n">
-        <v>628.3797610094306</v>
+        <v>81.0551348067187</v>
       </c>
       <c r="O42" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q42" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>282.3190661607202</v>
       </c>
       <c r="K44" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380652</v>
       </c>
       <c r="L44" t="n">
         <v>625.7775560664393</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K45" t="n">
         <v>333.8472147104634</v>
@@ -38105,7 +38105,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>409.430734259696</v>
+        <v>297.0239211855412</v>
       </c>
       <c r="O45" t="n">
         <v>552.4004797981761</v>
@@ -38117,7 +38117,7 @@
         <v>232.8901757426738</v>
       </c>
       <c r="R45" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>104.874844725331</v>
+        <v>104.8748447253311</v>
       </c>
       <c r="K46" t="n">
-        <v>287.3461619788762</v>
+        <v>287.3461619788763</v>
       </c>
       <c r="L46" t="n">
-        <v>416.7735267390485</v>
+        <v>416.7735267390486</v>
       </c>
       <c r="M46" t="n">
         <v>448.5591570030133</v>
@@ -38190,7 +38190,7 @@
         <v>395.8246771753065</v>
       </c>
       <c r="P46" t="n">
-        <v>318.5600083078064</v>
+        <v>318.5600083078065</v>
       </c>
       <c r="Q46" t="n">
         <v>143.9970777191504</v>
